--- a/wuhan_redcorss.xlsx
+++ b/wuhan_redcorss.xlsx
@@ -19,7 +19,7 @@
     <t>武汉红十字会捐款收支情况</t>
   </si>
   <si>
-    <t>时间：1月24日--2月2日    金额单位：元</t>
+    <t>时间：1月24日--2月4日    金额单位：元</t>
   </si>
   <si>
     <t>序号</t>
@@ -926,7 +926,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -966,6 +966,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -996,6 +1011,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1032,6 +1053,12 @@
     <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1048,6 +1075,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1060,6 +1102,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1385,18 +1430,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G4" sqref="E4:G4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="3.86607142857143" customWidth="1"/>
-    <col min="2" max="2" width="10.4107142857143" customWidth="1"/>
-    <col min="3" max="13" width="11.5714285714286" customWidth="1"/>
-    <col min="14" max="19" width="13.3839285714286" customWidth="1"/>
+    <col min="2" max="2" width="10.0803571428571" customWidth="1"/>
+    <col min="3" max="8" width="9.58928571428571" customWidth="1"/>
+    <col min="9" max="9" width="13.0535714285714" customWidth="1"/>
+    <col min="10" max="10" width="9.58928571428571" customWidth="1"/>
+    <col min="11" max="11" width="11.9017857142857" customWidth="1"/>
+    <col min="12" max="12" width="9.58928571428571" customWidth="1"/>
+    <col min="13" max="13" width="11.4017857142857" customWidth="1"/>
+    <col min="14" max="18" width="13.3839285714286" customWidth="1"/>
+    <col min="19" max="19" width="10.25" customWidth="1"/>
     <col min="20" max="20" width="14.7142857142857" customWidth="1"/>
     <col min="21" max="22" width="13.7142857142857" customWidth="1"/>
     <col min="23" max="23" width="13.3839285714286" customWidth="1"/>
@@ -1476,20 +1527,20 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="28" t="s">
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="41"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="55"/>
     </row>
     <row r="4" ht="22" customHeight="1" spans="1:23">
       <c r="A4" s="3"/>
@@ -1502,10 +1553,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="23"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1514,16 +1565,16 @@
         <v>11</v>
       </c>
       <c r="M4" s="4"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="42"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="56"/>
     </row>
     <row r="5" ht="38" customHeight="1" spans="1:23">
       <c r="A5" s="3"/>
@@ -1564,31 +1615,31 @@
       <c r="N5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="O5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="Q5" s="39" t="s">
         <v>19</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="32" t="s">
+      <c r="T5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="43" t="s">
+      <c r="U5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="32" t="s">
+      <c r="V5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="32" t="s">
+      <c r="W5" s="39" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1601,15 +1652,15 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="18"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="10">
         <f>D6+F6+G6+I6+K6+M6</f>
         <v>0</v>
@@ -1618,18 +1669,18 @@
         <f>E6+H6+J6+L6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="34"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="41"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="35">
+      <c r="S6" s="44">
         <v>11578</v>
       </c>
       <c r="T6" s="10">
         <v>13786152.9</v>
       </c>
-      <c r="U6" s="43"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="44"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="58"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:23">
       <c r="A7" s="6">
@@ -1644,38 +1695,38 @@
       <c r="D7" s="9">
         <v>210783.19</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="33"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="40"/>
       <c r="N7" s="10">
         <f>D7+F7+G7+I7+K7+M7</f>
         <v>210783.19</v>
       </c>
       <c r="O7" s="8">
-        <f>E7+H7+J7+L7</f>
-        <v>0</v>
+        <f>E7+H7+J7+L7+C7</f>
+        <v>1207</v>
       </c>
       <c r="P7" s="10">
         <f>P6+N7</f>
         <v>210783.19</v>
       </c>
-      <c r="Q7" s="34"/>
+      <c r="Q7" s="41"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="35">
+      <c r="S7" s="44">
         <v>16638</v>
       </c>
       <c r="T7" s="10">
         <v>19206664.41</v>
       </c>
-      <c r="U7" s="43"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="44"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="58"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:23">
       <c r="A8" s="6">
@@ -1690,42 +1741,42 @@
       <c r="D8" s="10">
         <v>4761028.68</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="23">
         <v>6203</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="19">
+      <c r="G8" s="24">
         <v>496345.95</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="33"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="40"/>
       <c r="N8" s="10">
         <f>D8+F8+G8+I8+K8+M8</f>
         <v>5257374.63</v>
       </c>
       <c r="O8" s="8">
-        <f>E8+H8+J8+L8</f>
-        <v>6203</v>
+        <f>E8+H8+J8+L8+C8</f>
+        <v>55894</v>
       </c>
       <c r="P8" s="10">
         <f>P7+N8</f>
         <v>5468157.82</v>
       </c>
-      <c r="Q8" s="34"/>
+      <c r="Q8" s="41"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="35">
+      <c r="S8" s="44">
         <v>13896</v>
       </c>
       <c r="T8" s="10">
         <v>50837618.7</v>
       </c>
-      <c r="U8" s="43"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="44"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="58"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:23">
       <c r="A9" s="6">
@@ -1740,42 +1791,42 @@
       <c r="D9" s="10">
         <v>2605009.45</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="23">
         <v>8130</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="19">
+      <c r="G9" s="24">
         <v>551987.09</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="33"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="40"/>
       <c r="N9" s="10">
         <f>D9+F9+G9+I9+K9+M9</f>
         <v>3156996.54</v>
       </c>
       <c r="O9" s="8">
-        <f>E9+H9+J9+L9</f>
-        <v>8130</v>
+        <f>E9+H9+J9+L9+C9</f>
+        <v>31902</v>
       </c>
       <c r="P9" s="10">
         <f>P8+N9</f>
         <v>8625154.36</v>
       </c>
-      <c r="Q9" s="34"/>
+      <c r="Q9" s="41"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="35">
+      <c r="S9" s="44">
         <v>8015</v>
       </c>
       <c r="T9" s="10">
         <v>53403774.88</v>
       </c>
-      <c r="U9" s="43"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="44"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="58"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:23">
       <c r="A10" s="6">
@@ -1790,29 +1841,29 @@
       <c r="D10" s="10">
         <v>2300481.9</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="23">
         <v>5806</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="19">
+      <c r="G10" s="24">
         <v>359960.01</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="27">
         <v>2856</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="33">
         <v>314540755.69</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="27">
         <v>746</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="33">
         <v>61609585.05</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="34">
         <v>48740</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10" s="41">
         <v>10272810.33</v>
       </c>
       <c r="N10" s="10">
@@ -1820,19 +1871,19 @@
         <v>389083592.98</v>
       </c>
       <c r="O10" s="8">
-        <f>E10+H10+J10+L10</f>
-        <v>58148</v>
+        <f>E10+H10+J10+L10+C10</f>
+        <v>77041</v>
       </c>
       <c r="P10" s="10">
         <f>P9+N10</f>
         <v>397708747.34</v>
       </c>
-      <c r="Q10" s="36">
+      <c r="Q10" s="45">
         <f>P10-V10</f>
         <v>343794147.34</v>
       </c>
       <c r="R10" s="4"/>
-      <c r="S10" s="35">
+      <c r="S10" s="44">
         <v>3876</v>
       </c>
       <c r="T10" s="10">
@@ -1842,7 +1893,7 @@
       <c r="V10" s="10">
         <v>53914600</v>
       </c>
-      <c r="W10" s="44">
+      <c r="W10" s="58">
         <f>V10+W9</f>
         <v>53914600</v>
       </c>
@@ -1863,7 +1914,7 @@
       <c r="E11" s="8">
         <v>4714</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="24">
         <v>215973.39</v>
       </c>
       <c r="G11" s="11">
@@ -1892,8 +1943,8 @@
         <v>84208421.85</v>
       </c>
       <c r="O11" s="8">
-        <f>E11+H11+J11+L11</f>
-        <v>17603</v>
+        <f>E11+H11+J11+L11+C11</f>
+        <v>30928</v>
       </c>
       <c r="P11" s="10">
         <f>P10+N11</f>
@@ -1905,16 +1956,16 @@
       </c>
       <c r="R11" s="10"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="37">
+      <c r="T11" s="46">
         <v>85501100</v>
       </c>
-      <c r="U11" s="37"/>
+      <c r="U11" s="46"/>
       <c r="V11" s="10"/>
-      <c r="W11" s="44">
+      <c r="W11" s="58">
         <f t="shared" ref="W11:W16" si="0">V11+W10</f>
         <v>53914600</v>
       </c>
-      <c r="Z11" s="45"/>
+      <c r="Z11" s="60"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:26">
       <c r="A12" s="6">
@@ -1959,8 +2010,8 @@
         <v>134937252.28</v>
       </c>
       <c r="O12" s="8">
-        <f>E12+H12+J12+L12</f>
-        <v>8285</v>
+        <f>E12+H12+J12+L12+C12</f>
+        <v>17840</v>
       </c>
       <c r="P12" s="10">
         <f t="shared" ref="P11:P16" si="1">P11+N12</f>
@@ -1970,22 +2021,22 @@
         <f>P12-V6:V12</f>
         <v>512176521.47</v>
       </c>
-      <c r="R12" s="38">
+      <c r="R12" s="47">
         <v>134690500</v>
       </c>
       <c r="S12" s="8"/>
-      <c r="T12" s="39">
+      <c r="T12" s="48">
         <v>379055000</v>
       </c>
-      <c r="U12" s="39"/>
+      <c r="U12" s="48"/>
       <c r="V12" s="10">
         <v>104677900</v>
       </c>
-      <c r="W12" s="44">
+      <c r="W12" s="58">
         <f t="shared" si="0"/>
         <v>158592500</v>
       </c>
-      <c r="Z12" s="45"/>
+      <c r="Z12" s="60"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:26">
       <c r="A13" s="6">
@@ -1994,8 +2045,12 @@
       <c r="B13" s="7">
         <v>43861.1</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="10"/>
+      <c r="C13" s="8">
+        <v>3775</v>
+      </c>
+      <c r="D13" s="10">
+        <v>421921.47</v>
+      </c>
       <c r="E13" s="8">
         <v>3385</v>
       </c>
@@ -2025,36 +2080,36 @@
       </c>
       <c r="N13" s="10">
         <f>D13+F13+G13+I13+K13+M13</f>
-        <v>84258903.05</v>
+        <v>84680824.52</v>
       </c>
       <c r="O13" s="8">
-        <f>E13+H13+J13+L13</f>
-        <v>6501</v>
+        <f>E13+H13+J13+L13+C13</f>
+        <v>10276</v>
       </c>
       <c r="P13" s="10">
         <f t="shared" si="1"/>
-        <v>701113324.52</v>
+        <v>701535245.99</v>
       </c>
       <c r="Q13" s="10">
         <f>P13-V8:V13</f>
-        <v>497960924.52</v>
-      </c>
-      <c r="R13" s="37">
+        <v>498382845.99</v>
+      </c>
+      <c r="R13" s="46">
         <v>80622600</v>
       </c>
       <c r="S13" s="8"/>
-      <c r="T13" s="39">
+      <c r="T13" s="48">
         <v>699531100</v>
       </c>
-      <c r="U13" s="39"/>
+      <c r="U13" s="48"/>
       <c r="V13" s="10">
         <v>203152400</v>
       </c>
-      <c r="W13" s="44">
+      <c r="W13" s="58">
         <f t="shared" si="0"/>
         <v>361744900</v>
       </c>
-      <c r="Z13" s="45"/>
+      <c r="Z13" s="60"/>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:26">
       <c r="A14" s="6">
@@ -2063,11 +2118,19 @@
       <c r="B14" s="7">
         <v>43862.1</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="12">
+        <v>2721</v>
+      </c>
+      <c r="D14" s="12">
+        <v>294683.27</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2151</v>
+      </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10">
+        <v>105533.82</v>
+      </c>
       <c r="H14" s="8">
         <v>623</v>
       </c>
@@ -2087,35 +2150,35 @@
         <v>491540.2</v>
       </c>
       <c r="N14" s="10">
-        <f>D14+F14+G14+I14+K14+M14</f>
-        <v>18563327.76</v>
+        <f>D13+F14+G14+I14+K14+M14</f>
+        <v>19090783.05</v>
       </c>
       <c r="O14" s="8">
-        <f>E14+H14+J14+L14</f>
-        <v>1902</v>
+        <f>E14+H14+J14+L14+C13</f>
+        <v>7828</v>
       </c>
       <c r="P14" s="10">
         <f t="shared" si="1"/>
-        <v>719676652.28</v>
+        <v>720626029.04</v>
       </c>
       <c r="Q14" s="10">
         <f>P14-V6:V14</f>
-        <v>719676652.28</v>
+        <v>720626029.04</v>
       </c>
       <c r="R14" s="10">
         <v>19458100</v>
       </c>
       <c r="S14" s="8"/>
-      <c r="T14" s="37">
+      <c r="T14" s="46">
         <v>718989200</v>
       </c>
-      <c r="U14" s="37"/>
+      <c r="U14" s="46"/>
       <c r="V14" s="10"/>
-      <c r="W14" s="44">
+      <c r="W14" s="58">
         <f t="shared" si="0"/>
         <v>361744900</v>
       </c>
-      <c r="Z14" s="45"/>
+      <c r="Z14" s="60"/>
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:23">
       <c r="A15" s="6">
@@ -2124,15 +2187,23 @@
       <c r="B15" s="7">
         <v>43863.1</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="C15" s="12">
+        <v>2195</v>
+      </c>
+      <c r="D15" s="12">
+        <v>263681.17</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1496</v>
+      </c>
       <c r="F15" s="12"/>
-      <c r="G15" s="19"/>
+      <c r="G15" s="24">
+        <v>68496.33</v>
+      </c>
       <c r="H15" s="12">
         <v>326</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="24">
         <v>144137445.3</v>
       </c>
       <c r="J15" s="12">
@@ -2144,29 +2215,29 @@
       <c r="L15" s="12">
         <v>502</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="24">
         <v>166548</v>
       </c>
       <c r="N15" s="10">
-        <f>D15+F15+G15+I15+K15+M15+U15*7</f>
-        <v>144769839.32</v>
+        <f>D14+F15+G15+I15+K15+M15+U15*7</f>
+        <v>145133018.92</v>
       </c>
       <c r="O15" s="8">
-        <f>E15+H15+J15+L15+2</f>
-        <v>864</v>
+        <f>E15+H15+J15+L15+C14</f>
+        <v>5079</v>
       </c>
       <c r="P15" s="10">
         <f t="shared" si="1"/>
-        <v>864446491.6</v>
+        <v>865759047.96</v>
       </c>
       <c r="Q15" s="10">
         <f>P15-V6:V15</f>
-        <v>859346491.6</v>
+        <v>860659047.96</v>
       </c>
       <c r="R15" s="10">
         <v>144959800</v>
       </c>
-      <c r="S15" s="40">
+      <c r="S15" s="49">
         <v>875</v>
       </c>
       <c r="T15" s="10">
@@ -2178,7 +2249,7 @@
       <c r="V15" s="10">
         <v>5100000</v>
       </c>
-      <c r="W15" s="44">
+      <c r="W15" s="58">
         <f t="shared" si="0"/>
         <v>366844900</v>
       </c>
@@ -2190,49 +2261,49 @@
       <c r="B16" s="7">
         <v>43864.1</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="19"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="12">
         <v>195</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="24">
         <v>54402675.01</v>
       </c>
       <c r="J16" s="12">
         <v>47</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="24">
         <v>1255390.4</v>
       </c>
       <c r="L16" s="12">
         <v>450</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="24">
         <v>306562</v>
       </c>
       <c r="N16" s="10">
-        <f>M16+K16+I16+G16+F16+D16</f>
-        <v>55964627.41</v>
+        <f>M16+K16+I16+G16+F16+D15</f>
+        <v>56228308.58</v>
       </c>
       <c r="O16" s="8">
-        <f>E16+H16+J16+L16+2</f>
-        <v>694</v>
+        <f>E16+H16+J16+L16+C15</f>
+        <v>2887</v>
       </c>
       <c r="P16" s="10">
         <f t="shared" si="1"/>
-        <v>920411119.01</v>
+        <v>921987356.54</v>
       </c>
       <c r="Q16" s="10">
         <f>P16-V7:V16</f>
-        <v>735161119.01</v>
+        <v>736737356.54</v>
       </c>
       <c r="R16" s="10">
         <v>56259300</v>
       </c>
-      <c r="S16" s="40">
+      <c r="S16" s="49">
         <v>802</v>
       </c>
       <c r="T16" s="11">
@@ -2242,66 +2313,153 @@
       <c r="V16" s="10">
         <v>185250000</v>
       </c>
-      <c r="W16" s="44">
+      <c r="W16" s="58">
         <f t="shared" si="0"/>
         <v>552094900</v>
       </c>
     </row>
-    <row r="18" ht="89" customHeight="1" spans="1:23">
-      <c r="A18" s="13" t="s">
+    <row r="17" ht="27" customHeight="1" spans="1:23">
+      <c r="A17" s="6">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7">
+        <v>43865.1</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="14">
+        <v>272</v>
+      </c>
+      <c r="I17" s="28">
+        <v>62316505.61</v>
+      </c>
+      <c r="J17" s="14">
+        <v>23</v>
+      </c>
+      <c r="K17" s="28">
+        <v>163895.66</v>
+      </c>
+      <c r="L17" s="14">
+        <v>496</v>
+      </c>
+      <c r="M17" s="28">
+        <v>329348</v>
+      </c>
+      <c r="N17" s="10">
+        <f>M17+K17+I17+G17+F17+D17</f>
+        <v>62809749.27</v>
+      </c>
+      <c r="O17" s="8">
+        <f>E17+H17+J17+L17+C17</f>
+        <v>791</v>
+      </c>
+      <c r="P17" s="10">
+        <f>P16+N17</f>
+        <v>984797105.81</v>
+      </c>
+      <c r="Q17" s="10">
+        <f>P17-V8:V17</f>
+        <v>984797105.81</v>
+      </c>
+      <c r="R17" s="50">
+        <v>63073400</v>
+      </c>
+      <c r="S17" s="51">
+        <v>792</v>
+      </c>
+      <c r="T17" s="52">
+        <v>983514000</v>
+      </c>
+      <c r="U17" s="52"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="58">
+        <f>V17+W16</f>
+        <v>552094900</v>
+      </c>
+    </row>
+    <row r="18" ht="27" customHeight="1" spans="1:23">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="59"/>
+    </row>
+    <row r="20" ht="89" customHeight="1" spans="1:23">
+      <c r="A20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B20" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
     </row>
-    <row r="19" ht="41" customHeight="1" spans="1:23">
-      <c r="A19" s="15"/>
-      <c r="B19" s="14" t="s">
+    <row r="21" ht="41" customHeight="1" spans="1:23">
+      <c r="A21" s="20"/>
+      <c r="B21" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2313,10 +2471,10 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B18:W18"/>
-    <mergeCell ref="B19:W19"/>
+    <mergeCell ref="B20:W20"/>
+    <mergeCell ref="B21:W21"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="N3:Q4"/>
     <mergeCell ref="R3:W4"/>

--- a/wuhan_redcorss.xlsx
+++ b/wuhan_redcorss.xlsx
@@ -19,7 +19,7 @@
     <t>武汉红十字会捐款收支情况</t>
   </si>
   <si>
-    <t>时间：1月24日--2月4日    金额单位：元</t>
+    <t>时间：1月24日--2月5日    金额单位：元</t>
   </si>
   <si>
     <t>序号</t>
@@ -107,12 +107,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -180,14 +180,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -201,9 +201,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,36 +268,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -261,8 +283,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,66 +329,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -343,6 +336,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -353,126 +353,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -485,55 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,8 +679,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,6 +690,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,21 +744,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,30 +773,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -781,152 +781,152 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -948,19 +948,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -975,7 +975,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -999,34 +999,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1047,49 +1044,46 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1101,10 +1095,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1430,10 +1427,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1527,20 +1524,20 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="35" t="s">
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="55"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="53"/>
     </row>
     <row r="4" ht="22" customHeight="1" spans="1:23">
       <c r="A4" s="3"/>
@@ -1556,7 +1553,7 @@
       <c r="H4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="30"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1565,16 +1562,16 @@
         <v>11</v>
       </c>
       <c r="M4" s="4"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="56"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="54"/>
     </row>
     <row r="5" ht="38" customHeight="1" spans="1:23">
       <c r="A5" s="3"/>
@@ -1615,31 +1612,31 @@
       <c r="N5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="Q5" s="38" t="s">
         <v>19</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="39" t="s">
+      <c r="S5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="39" t="s">
+      <c r="T5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="57" t="s">
+      <c r="U5" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="39" t="s">
+      <c r="V5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="39" t="s">
+      <c r="W5" s="38" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1655,32 +1652,32 @@
       <c r="E6" s="23"/>
       <c r="F6" s="5"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
       <c r="N6" s="10">
-        <f>D6+F6+G6+I6+K6+M6</f>
+        <f t="shared" ref="N6:N13" si="0">D6+F6+G6+I6+K6+M6</f>
         <v>0</v>
       </c>
       <c r="O6" s="8">
         <f>E6+H6+J6+L6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="41"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="40"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="44">
+      <c r="S6" s="43">
         <v>11578</v>
       </c>
       <c r="T6" s="10">
         <v>13786152.9</v>
       </c>
-      <c r="U6" s="57"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="58"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="56"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:23">
       <c r="A7" s="6">
@@ -1698,35 +1695,35 @@
       <c r="E7" s="23"/>
       <c r="F7" s="5"/>
       <c r="G7" s="24"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="40"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="39"/>
       <c r="N7" s="10">
-        <f>D7+F7+G7+I7+K7+M7</f>
+        <f t="shared" si="0"/>
         <v>210783.19</v>
       </c>
       <c r="O7" s="8">
-        <f>E7+H7+J7+L7+C7</f>
+        <f t="shared" ref="O7:O13" si="1">E7+H7+J7+L7+C7</f>
         <v>1207</v>
       </c>
       <c r="P7" s="10">
         <f>P6+N7</f>
         <v>210783.19</v>
       </c>
-      <c r="Q7" s="41"/>
+      <c r="Q7" s="40"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="44">
+      <c r="S7" s="43">
         <v>16638</v>
       </c>
       <c r="T7" s="10">
         <v>19206664.41</v>
       </c>
-      <c r="U7" s="57"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="58"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="56"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:23">
       <c r="A8" s="6">
@@ -1748,35 +1745,35 @@
       <c r="G8" s="24">
         <v>496345.95</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="40"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="39"/>
       <c r="N8" s="10">
-        <f>D8+F8+G8+I8+K8+M8</f>
+        <f t="shared" si="0"/>
         <v>5257374.63</v>
       </c>
       <c r="O8" s="8">
-        <f>E8+H8+J8+L8+C8</f>
+        <f t="shared" si="1"/>
         <v>55894</v>
       </c>
       <c r="P8" s="10">
         <f>P7+N8</f>
         <v>5468157.82</v>
       </c>
-      <c r="Q8" s="41"/>
+      <c r="Q8" s="40"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="44">
+      <c r="S8" s="43">
         <v>13896</v>
       </c>
       <c r="T8" s="10">
         <v>50837618.7</v>
       </c>
-      <c r="U8" s="57"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="58"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="56"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:23">
       <c r="A9" s="6">
@@ -1798,35 +1795,35 @@
       <c r="G9" s="24">
         <v>551987.09</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="40"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="39"/>
       <c r="N9" s="10">
-        <f>D9+F9+G9+I9+K9+M9</f>
+        <f t="shared" si="0"/>
         <v>3156996.54</v>
       </c>
       <c r="O9" s="8">
-        <f>E9+H9+J9+L9+C9</f>
+        <f t="shared" si="1"/>
         <v>31902</v>
       </c>
       <c r="P9" s="10">
         <f>P8+N9</f>
         <v>8625154.36</v>
       </c>
-      <c r="Q9" s="41"/>
+      <c r="Q9" s="40"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="44">
+      <c r="S9" s="43">
         <v>8015</v>
       </c>
       <c r="T9" s="10">
         <v>53403774.88</v>
       </c>
-      <c r="U9" s="57"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="58"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="56"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:23">
       <c r="A10" s="6">
@@ -1848,42 +1845,42 @@
       <c r="G10" s="24">
         <v>359960.01</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="26">
         <v>2856</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="32">
         <v>314540755.69</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="26">
         <v>746</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="32">
         <v>61609585.05</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="33">
         <v>48740</v>
       </c>
-      <c r="M10" s="41">
+      <c r="M10" s="40">
         <v>10272810.33</v>
       </c>
       <c r="N10" s="10">
-        <f>D10+F10+G10+I10+K10+M10</f>
+        <f t="shared" si="0"/>
         <v>389083592.98</v>
       </c>
       <c r="O10" s="8">
-        <f>E10+H10+J10+L10+C10</f>
+        <f t="shared" si="1"/>
         <v>77041</v>
       </c>
       <c r="P10" s="10">
         <f>P9+N10</f>
         <v>397708747.34</v>
       </c>
-      <c r="Q10" s="45">
-        <f>P10-V10</f>
+      <c r="Q10" s="44">
+        <f>P10-W10</f>
         <v>343794147.34</v>
       </c>
       <c r="R10" s="4"/>
-      <c r="S10" s="44">
+      <c r="S10" s="43">
         <v>3876</v>
       </c>
       <c r="T10" s="10">
@@ -1893,7 +1890,7 @@
       <c r="V10" s="10">
         <v>53914600</v>
       </c>
-      <c r="W10" s="58">
+      <c r="W10" s="56">
         <f>V10+W9</f>
         <v>53914600</v>
       </c>
@@ -1939,33 +1936,33 @@
         <v>3774236</v>
       </c>
       <c r="N11" s="10">
-        <f>D11+F11+G11+I11+K11+M11</f>
+        <f t="shared" si="0"/>
         <v>84208421.85</v>
       </c>
       <c r="O11" s="8">
-        <f>E11+H11+J11+L11+C11</f>
+        <f t="shared" si="1"/>
         <v>30928</v>
       </c>
       <c r="P11" s="10">
         <f>P10+N11</f>
         <v>481917169.19</v>
       </c>
-      <c r="Q11" s="10">
-        <f>P11-V6:V11</f>
-        <v>481917169.19</v>
+      <c r="Q11" s="44">
+        <f t="shared" ref="Q11:Q17" si="2">P11-W11</f>
+        <v>428002569.19</v>
       </c>
       <c r="R11" s="10"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="46">
+      <c r="T11" s="45">
         <v>85501100</v>
       </c>
-      <c r="U11" s="46"/>
+      <c r="U11" s="57"/>
       <c r="V11" s="10"/>
-      <c r="W11" s="58">
-        <f t="shared" ref="W11:W16" si="0">V11+W10</f>
+      <c r="W11" s="56">
+        <f t="shared" ref="W11:W17" si="3">V11+W10</f>
         <v>53914600</v>
       </c>
-      <c r="Z11" s="60"/>
+      <c r="Z11" s="59"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:26">
       <c r="A12" s="6">
@@ -2006,37 +2003,37 @@
         <v>1486582</v>
       </c>
       <c r="N12" s="10">
-        <f>D12+F12+G12+I12+K12+M12</f>
+        <f t="shared" si="0"/>
         <v>134937252.28</v>
       </c>
       <c r="O12" s="8">
-        <f>E12+H12+J12+L12+C12</f>
+        <f t="shared" si="1"/>
         <v>17840</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P11:P16" si="1">P11+N12</f>
+        <f t="shared" ref="P11:P17" si="4">P11+N12</f>
         <v>616854421.47</v>
       </c>
-      <c r="Q12" s="10">
-        <f>P12-V6:V12</f>
-        <v>512176521.47</v>
-      </c>
-      <c r="R12" s="47">
+      <c r="Q12" s="44">
+        <f t="shared" si="2"/>
+        <v>458261921.47</v>
+      </c>
+      <c r="R12" s="46">
         <v>134690500</v>
       </c>
       <c r="S12" s="8"/>
-      <c r="T12" s="48">
+      <c r="T12" s="45">
         <v>379055000</v>
       </c>
-      <c r="U12" s="48"/>
+      <c r="U12" s="45"/>
       <c r="V12" s="10">
         <v>104677900</v>
       </c>
-      <c r="W12" s="58">
-        <f t="shared" si="0"/>
+      <c r="W12" s="56">
+        <f t="shared" si="3"/>
         <v>158592500</v>
       </c>
-      <c r="Z12" s="60"/>
+      <c r="Z12" s="59"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:26">
       <c r="A13" s="6">
@@ -2079,37 +2076,37 @@
         <v>912205.01</v>
       </c>
       <c r="N13" s="10">
-        <f>D13+F13+G13+I13+K13+M13</f>
+        <f t="shared" si="0"/>
         <v>84680824.52</v>
       </c>
       <c r="O13" s="8">
-        <f>E13+H13+J13+L13+C13</f>
+        <f t="shared" si="1"/>
         <v>10276</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>701535245.99</v>
       </c>
-      <c r="Q13" s="10">
-        <f>P13-V8:V13</f>
-        <v>498382845.99</v>
-      </c>
-      <c r="R13" s="46">
+      <c r="Q13" s="44">
+        <f t="shared" si="2"/>
+        <v>339790345.99</v>
+      </c>
+      <c r="R13" s="45">
         <v>80622600</v>
       </c>
       <c r="S13" s="8"/>
-      <c r="T13" s="48">
+      <c r="T13" s="45">
         <v>699531100</v>
       </c>
-      <c r="U13" s="48"/>
+      <c r="U13" s="45"/>
       <c r="V13" s="10">
         <v>203152400</v>
       </c>
-      <c r="W13" s="58">
-        <f t="shared" si="0"/>
+      <c r="W13" s="56">
+        <f t="shared" si="3"/>
         <v>361744900</v>
       </c>
-      <c r="Z13" s="60"/>
+      <c r="Z13" s="59"/>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:26">
       <c r="A14" s="6">
@@ -2158,27 +2155,27 @@
         <v>7828</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>720626029.04</v>
       </c>
-      <c r="Q14" s="10">
-        <f>P14-V6:V14</f>
-        <v>720626029.04</v>
+      <c r="Q14" s="44">
+        <f t="shared" si="2"/>
+        <v>358881129.04</v>
       </c>
       <c r="R14" s="10">
         <v>19458100</v>
       </c>
       <c r="S14" s="8"/>
-      <c r="T14" s="46">
+      <c r="T14" s="45">
         <v>718989200</v>
       </c>
-      <c r="U14" s="46"/>
+      <c r="U14" s="57"/>
       <c r="V14" s="10"/>
-      <c r="W14" s="58">
-        <f t="shared" si="0"/>
+      <c r="W14" s="56">
+        <f t="shared" si="3"/>
         <v>361744900</v>
       </c>
-      <c r="Z14" s="60"/>
+      <c r="Z14" s="59"/>
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:23">
       <c r="A15" s="6">
@@ -2227,17 +2224,17 @@
         <v>5079</v>
       </c>
       <c r="P15" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>865759047.96</v>
       </c>
-      <c r="Q15" s="10">
-        <f>P15-V6:V15</f>
-        <v>860659047.96</v>
+      <c r="Q15" s="44">
+        <f t="shared" si="2"/>
+        <v>498914147.96</v>
       </c>
       <c r="R15" s="10">
         <v>144959800</v>
       </c>
-      <c r="S15" s="49">
+      <c r="S15" s="47">
         <v>875</v>
       </c>
       <c r="T15" s="10">
@@ -2249,8 +2246,8 @@
       <c r="V15" s="10">
         <v>5100000</v>
       </c>
-      <c r="W15" s="58">
-        <f t="shared" si="0"/>
+      <c r="W15" s="56">
+        <f t="shared" si="3"/>
         <v>366844900</v>
       </c>
     </row>
@@ -2293,17 +2290,17 @@
         <v>2887</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>921987356.54</v>
       </c>
-      <c r="Q16" s="10">
-        <f>P16-V7:V16</f>
-        <v>736737356.54</v>
+      <c r="Q16" s="44">
+        <f t="shared" si="2"/>
+        <v>369892456.54</v>
       </c>
       <c r="R16" s="10">
         <v>56259300</v>
       </c>
-      <c r="S16" s="49">
+      <c r="S16" s="47">
         <v>802</v>
       </c>
       <c r="T16" s="11">
@@ -2313,8 +2310,8 @@
       <c r="V16" s="10">
         <v>185250000</v>
       </c>
-      <c r="W16" s="58">
-        <f t="shared" si="0"/>
+      <c r="W16" s="56">
+        <f t="shared" si="3"/>
         <v>552094900</v>
       </c>
     </row>
@@ -2325,27 +2322,27 @@
       <c r="B17" s="7">
         <v>43865.1</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="14">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="12">
         <v>272</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="24">
         <v>62316505.61</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="12">
         <v>23</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="24">
         <v>163895.66</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="12">
         <v>496</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="24">
         <v>329348</v>
       </c>
       <c r="N17" s="10">
@@ -2357,109 +2354,175 @@
         <v>791</v>
       </c>
       <c r="P17" s="10">
-        <f>P16+N17</f>
+        <f t="shared" si="4"/>
         <v>984797105.81</v>
       </c>
-      <c r="Q17" s="10">
-        <f>P17-V8:V17</f>
-        <v>984797105.81</v>
-      </c>
-      <c r="R17" s="50">
+      <c r="Q17" s="44">
+        <f t="shared" si="2"/>
+        <v>432702205.81</v>
+      </c>
+      <c r="R17" s="10">
         <v>63073400</v>
       </c>
-      <c r="S17" s="51">
+      <c r="S17" s="47">
         <v>792</v>
       </c>
-      <c r="T17" s="52">
+      <c r="T17" s="11">
         <v>983514000</v>
       </c>
-      <c r="U17" s="52"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="58">
-        <f>V17+W16</f>
+      <c r="U17" s="11"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="56">
+        <f t="shared" si="3"/>
         <v>552094900</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:23">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="59"/>
+      <c r="A18" s="6">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7">
+        <v>43866.1</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1934</v>
+      </c>
+      <c r="D18" s="14">
+        <v>238279.83</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="14">
+        <v>299</v>
+      </c>
+      <c r="I18" s="27">
+        <v>28301828.28</v>
+      </c>
+      <c r="J18" s="14">
+        <v>24</v>
+      </c>
+      <c r="K18" s="27">
+        <v>353748.33</v>
+      </c>
+      <c r="L18" s="14">
+        <v>612</v>
+      </c>
+      <c r="M18" s="27">
+        <v>441020</v>
+      </c>
+      <c r="N18" s="10">
+        <f>M18+K18+I18+G18+F18+D18</f>
+        <v>29334876.44</v>
+      </c>
+      <c r="O18" s="8">
+        <f>E18+H18+J18+L18+C18</f>
+        <v>2869</v>
+      </c>
+      <c r="P18" s="10">
+        <f>P17+N18</f>
+        <v>1014131982.25</v>
+      </c>
+      <c r="Q18" s="44">
+        <f>P18-W18</f>
+        <v>462037082.25</v>
+      </c>
+      <c r="R18" s="48">
+        <v>29448800</v>
+      </c>
+      <c r="S18" s="49">
+        <v>935</v>
+      </c>
+      <c r="T18" s="50">
+        <v>1012962800</v>
+      </c>
+      <c r="U18" s="50"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="56">
+        <f>V18+W17</f>
+        <v>552094900</v>
+      </c>
     </row>
-    <row r="20" ht="89" customHeight="1" spans="1:23">
-      <c r="A20" s="18" t="s">
+    <row r="19" ht="27" customHeight="1" spans="1:23">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="58"/>
+    </row>
+    <row r="21" ht="89" customHeight="1" spans="1:23">
+      <c r="A21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B21" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
     </row>
-    <row r="21" ht="41" customHeight="1" spans="1:23">
-      <c r="A21" s="20"/>
-      <c r="B21" s="19" t="s">
+    <row r="22" ht="41" customHeight="1" spans="1:23">
+      <c r="A22" s="20"/>
+      <c r="B22" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2471,10 +2534,10 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B20:W20"/>
     <mergeCell ref="B21:W21"/>
+    <mergeCell ref="B22:W22"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="N3:Q4"/>
     <mergeCell ref="R3:W4"/>

--- a/wuhan_redcorss.xlsx
+++ b/wuhan_redcorss.xlsx
@@ -926,7 +926,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -972,15 +972,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1011,9 +1002,6 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1050,12 +1038,6 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1078,12 +1060,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1099,9 +1075,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1429,15 +1402,17 @@
   <sheetPr/>
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:W2"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7:P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="3.86607142857143" customWidth="1"/>
     <col min="2" max="2" width="10.0803571428571" customWidth="1"/>
-    <col min="3" max="8" width="9.58928571428571" customWidth="1"/>
+    <col min="3" max="3" width="9.58928571428571" customWidth="1"/>
+    <col min="4" max="4" width="10.8928571428571" customWidth="1"/>
+    <col min="5" max="8" width="9.58928571428571" customWidth="1"/>
     <col min="9" max="9" width="13.0535714285714" customWidth="1"/>
     <col min="10" max="10" width="9.58928571428571" customWidth="1"/>
     <col min="11" max="11" width="11.9017857142857" customWidth="1"/>
@@ -1524,20 +1499,20 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="34" t="s">
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="53"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="45"/>
     </row>
     <row r="4" ht="22" customHeight="1" spans="1:23">
       <c r="A4" s="3"/>
@@ -1550,10 +1525,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="29"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1562,16 +1537,16 @@
         <v>11</v>
       </c>
       <c r="M4" s="4"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="54"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="46"/>
     </row>
     <row r="5" ht="38" customHeight="1" spans="1:23">
       <c r="A5" s="3"/>
@@ -1612,31 +1587,31 @@
       <c r="N5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="O5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="38" t="s">
+      <c r="P5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="38" t="s">
+      <c r="Q5" s="34" t="s">
         <v>19</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="38" t="s">
+      <c r="S5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="38" t="s">
+      <c r="T5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="55" t="s">
+      <c r="U5" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="38" t="s">
+      <c r="V5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="38" t="s">
+      <c r="W5" s="34" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1649,9 +1624,9 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="23"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="24"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -1667,17 +1642,17 @@
         <v>0</v>
       </c>
       <c r="P6" s="13"/>
-      <c r="Q6" s="40"/>
+      <c r="Q6" s="36"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="43">
+      <c r="S6" s="37">
         <v>11578</v>
       </c>
       <c r="T6" s="10">
         <v>13786152.9</v>
       </c>
-      <c r="U6" s="55"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="56"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="48"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:23">
       <c r="A7" s="6">
@@ -1692,15 +1667,15 @@
       <c r="D7" s="9">
         <v>210783.19</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="39"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="35"/>
       <c r="N7" s="10">
         <f t="shared" si="0"/>
         <v>210783.19</v>
@@ -1713,17 +1688,17 @@
         <f>P6+N7</f>
         <v>210783.19</v>
       </c>
-      <c r="Q7" s="40"/>
+      <c r="Q7" s="36"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="43">
+      <c r="S7" s="37">
         <v>16638</v>
       </c>
       <c r="T7" s="10">
         <v>19206664.41</v>
       </c>
-      <c r="U7" s="55"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="56"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="48"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:23">
       <c r="A8" s="6">
@@ -1738,19 +1713,19 @@
       <c r="D8" s="10">
         <v>4761028.68</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="20">
         <v>6203</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="24">
+      <c r="G8" s="21">
         <v>496345.95</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="39"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="35"/>
       <c r="N8" s="10">
         <f t="shared" si="0"/>
         <v>5257374.63</v>
@@ -1763,17 +1738,17 @@
         <f>P7+N8</f>
         <v>5468157.82</v>
       </c>
-      <c r="Q8" s="40"/>
+      <c r="Q8" s="36"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="43">
+      <c r="S8" s="37">
         <v>13896</v>
       </c>
       <c r="T8" s="10">
         <v>50837618.7</v>
       </c>
-      <c r="U8" s="55"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="56"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="48"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:23">
       <c r="A9" s="6">
@@ -1788,19 +1763,19 @@
       <c r="D9" s="10">
         <v>2605009.45</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="20">
         <v>8130</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="24">
+      <c r="G9" s="21">
         <v>551987.09</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="39"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="35"/>
       <c r="N9" s="10">
         <f t="shared" si="0"/>
         <v>3156996.54</v>
@@ -1813,17 +1788,17 @@
         <f>P8+N9</f>
         <v>8625154.36</v>
       </c>
-      <c r="Q9" s="40"/>
+      <c r="Q9" s="36"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="43">
+      <c r="S9" s="37">
         <v>8015</v>
       </c>
       <c r="T9" s="10">
         <v>53403774.88</v>
       </c>
-      <c r="U9" s="55"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="56"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="48"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:23">
       <c r="A10" s="6">
@@ -1838,29 +1813,29 @@
       <c r="D10" s="10">
         <v>2300481.9</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="20">
         <v>5806</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="24">
+      <c r="G10" s="21">
         <v>359960.01</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="23">
         <v>2856</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="28">
         <v>314540755.69</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="23">
         <v>746</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="28">
         <v>61609585.05</v>
       </c>
-      <c r="L10" s="33">
+      <c r="L10" s="29">
         <v>48740</v>
       </c>
-      <c r="M10" s="40">
+      <c r="M10" s="36">
         <v>10272810.33</v>
       </c>
       <c r="N10" s="10">
@@ -1875,12 +1850,12 @@
         <f>P9+N10</f>
         <v>397708747.34</v>
       </c>
-      <c r="Q10" s="44">
+      <c r="Q10" s="38">
         <f>P10-W10</f>
         <v>343794147.34</v>
       </c>
       <c r="R10" s="4"/>
-      <c r="S10" s="43">
+      <c r="S10" s="37">
         <v>3876</v>
       </c>
       <c r="T10" s="10">
@@ -1890,7 +1865,7 @@
       <c r="V10" s="10">
         <v>53914600</v>
       </c>
-      <c r="W10" s="56">
+      <c r="W10" s="48">
         <f>V10+W9</f>
         <v>53914600</v>
       </c>
@@ -1911,7 +1886,7 @@
       <c r="E11" s="8">
         <v>4714</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="21">
         <v>215973.39</v>
       </c>
       <c r="G11" s="11">
@@ -1947,22 +1922,22 @@
         <f>P10+N11</f>
         <v>481917169.19</v>
       </c>
-      <c r="Q11" s="44">
+      <c r="Q11" s="38">
         <f t="shared" ref="Q11:Q17" si="2">P11-W11</f>
         <v>428002569.19</v>
       </c>
       <c r="R11" s="10"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="45">
+      <c r="T11" s="39">
         <v>85501100</v>
       </c>
-      <c r="U11" s="57"/>
+      <c r="U11" s="49"/>
       <c r="V11" s="10"/>
-      <c r="W11" s="56">
+      <c r="W11" s="48">
         <f t="shared" ref="W11:W17" si="3">V11+W10</f>
         <v>53914600</v>
       </c>
-      <c r="Z11" s="59"/>
+      <c r="Z11" s="50"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:26">
       <c r="A12" s="6">
@@ -2014,26 +1989,26 @@
         <f t="shared" ref="P11:P17" si="4">P11+N12</f>
         <v>616854421.47</v>
       </c>
-      <c r="Q12" s="44">
+      <c r="Q12" s="38">
         <f t="shared" si="2"/>
         <v>458261921.47</v>
       </c>
-      <c r="R12" s="46">
+      <c r="R12" s="40">
         <v>134690500</v>
       </c>
       <c r="S12" s="8"/>
-      <c r="T12" s="45">
+      <c r="T12" s="39">
         <v>379055000</v>
       </c>
-      <c r="U12" s="45"/>
+      <c r="U12" s="39"/>
       <c r="V12" s="10">
         <v>104677900</v>
       </c>
-      <c r="W12" s="56">
+      <c r="W12" s="48">
         <f t="shared" si="3"/>
         <v>158592500</v>
       </c>
-      <c r="Z12" s="59"/>
+      <c r="Z12" s="50"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:26">
       <c r="A13" s="6">
@@ -2087,26 +2062,26 @@
         <f t="shared" si="4"/>
         <v>701535245.99</v>
       </c>
-      <c r="Q13" s="44">
+      <c r="Q13" s="38">
         <f t="shared" si="2"/>
         <v>339790345.99</v>
       </c>
-      <c r="R13" s="45">
+      <c r="R13" s="39">
         <v>80622600</v>
       </c>
       <c r="S13" s="8"/>
-      <c r="T13" s="45">
+      <c r="T13" s="39">
         <v>699531100</v>
       </c>
-      <c r="U13" s="45"/>
+      <c r="U13" s="39"/>
       <c r="V13" s="10">
         <v>203152400</v>
       </c>
-      <c r="W13" s="56">
+      <c r="W13" s="48">
         <f t="shared" si="3"/>
         <v>361744900</v>
       </c>
-      <c r="Z13" s="59"/>
+      <c r="Z13" s="50"/>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:26">
       <c r="A14" s="6">
@@ -2158,7 +2133,7 @@
         <f t="shared" si="4"/>
         <v>720626029.04</v>
       </c>
-      <c r="Q14" s="44">
+      <c r="Q14" s="38">
         <f t="shared" si="2"/>
         <v>358881129.04</v>
       </c>
@@ -2166,16 +2141,16 @@
         <v>19458100</v>
       </c>
       <c r="S14" s="8"/>
-      <c r="T14" s="45">
+      <c r="T14" s="39">
         <v>718989200</v>
       </c>
-      <c r="U14" s="57"/>
+      <c r="U14" s="49"/>
       <c r="V14" s="10"/>
-      <c r="W14" s="56">
+      <c r="W14" s="48">
         <f t="shared" si="3"/>
         <v>361744900</v>
       </c>
-      <c r="Z14" s="59"/>
+      <c r="Z14" s="50"/>
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:23">
       <c r="A15" s="6">
@@ -2194,13 +2169,13 @@
         <v>1496</v>
       </c>
       <c r="F15" s="12"/>
-      <c r="G15" s="24">
+      <c r="G15" s="21">
         <v>68496.33</v>
       </c>
       <c r="H15" s="12">
         <v>326</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="21">
         <v>144137445.3</v>
       </c>
       <c r="J15" s="12">
@@ -2212,7 +2187,7 @@
       <c r="L15" s="12">
         <v>502</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="21">
         <v>166548</v>
       </c>
       <c r="N15" s="10">
@@ -2227,14 +2202,14 @@
         <f t="shared" si="4"/>
         <v>865759047.96</v>
       </c>
-      <c r="Q15" s="44">
+      <c r="Q15" s="38">
         <f t="shared" si="2"/>
         <v>498914147.96</v>
       </c>
       <c r="R15" s="10">
         <v>144959800</v>
       </c>
-      <c r="S15" s="47">
+      <c r="S15" s="41">
         <v>875</v>
       </c>
       <c r="T15" s="10">
@@ -2246,7 +2221,7 @@
       <c r="V15" s="10">
         <v>5100000</v>
       </c>
-      <c r="W15" s="56">
+      <c r="W15" s="48">
         <f t="shared" si="3"/>
         <v>366844900</v>
       </c>
@@ -2262,23 +2237,23 @@
       <c r="D16" s="13"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="24"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="12">
         <v>195</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="21">
         <v>54402675.01</v>
       </c>
       <c r="J16" s="12">
         <v>47</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="21">
         <v>1255390.4</v>
       </c>
       <c r="L16" s="12">
         <v>450</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="21">
         <v>306562</v>
       </c>
       <c r="N16" s="10">
@@ -2293,14 +2268,14 @@
         <f t="shared" si="4"/>
         <v>921987356.54</v>
       </c>
-      <c r="Q16" s="44">
+      <c r="Q16" s="38">
         <f t="shared" si="2"/>
         <v>369892456.54</v>
       </c>
       <c r="R16" s="10">
         <v>56259300</v>
       </c>
-      <c r="S16" s="47">
+      <c r="S16" s="41">
         <v>802</v>
       </c>
       <c r="T16" s="11">
@@ -2310,7 +2285,7 @@
       <c r="V16" s="10">
         <v>185250000</v>
       </c>
-      <c r="W16" s="56">
+      <c r="W16" s="48">
         <f t="shared" si="3"/>
         <v>552094900</v>
       </c>
@@ -2326,23 +2301,23 @@
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="24"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="12">
         <v>272</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="21">
         <v>62316505.61</v>
       </c>
       <c r="J17" s="12">
         <v>23</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="21">
         <v>163895.66</v>
       </c>
       <c r="L17" s="12">
         <v>496</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="21">
         <v>329348</v>
       </c>
       <c r="N17" s="10">
@@ -2357,14 +2332,14 @@
         <f t="shared" si="4"/>
         <v>984797105.81</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="Q17" s="38">
         <f t="shared" si="2"/>
         <v>432702205.81</v>
       </c>
       <c r="R17" s="10">
         <v>63073400</v>
       </c>
-      <c r="S17" s="47">
+      <c r="S17" s="41">
         <v>792</v>
       </c>
       <c r="T17" s="11">
@@ -2372,7 +2347,7 @@
       </c>
       <c r="U17" s="11"/>
       <c r="V17" s="10"/>
-      <c r="W17" s="56">
+      <c r="W17" s="48">
         <f t="shared" si="3"/>
         <v>552094900</v>
       </c>
@@ -2392,23 +2367,23 @@
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="27"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="14">
         <v>299</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="24">
         <v>28301828.28</v>
       </c>
       <c r="J18" s="14">
         <v>24</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="24">
         <v>353748.33</v>
       </c>
       <c r="L18" s="14">
         <v>612</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="24">
         <v>441020</v>
       </c>
       <c r="N18" s="10">
@@ -2423,106 +2398,147 @@
         <f>P17+N18</f>
         <v>1014131982.25</v>
       </c>
-      <c r="Q18" s="44">
+      <c r="Q18" s="38">
         <f>P18-W18</f>
         <v>462037082.25</v>
       </c>
-      <c r="R18" s="48">
+      <c r="R18" s="42">
         <v>29448800</v>
       </c>
-      <c r="S18" s="49">
+      <c r="S18" s="43">
         <v>935</v>
       </c>
-      <c r="T18" s="50">
+      <c r="T18" s="44">
         <v>1012962800</v>
       </c>
-      <c r="U18" s="50"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="56">
+      <c r="U18" s="44"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="48">
         <f>V18+W17</f>
         <v>552094900</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:23">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="58"/>
+      <c r="A19" s="6">
+        <v>14</v>
+      </c>
+      <c r="B19" s="7">
+        <v>43867.1</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14">
+        <v>12</v>
+      </c>
+      <c r="F19" s="14">
+        <v>19115.18</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="14">
+        <v>276</v>
+      </c>
+      <c r="I19" s="24">
+        <v>14267217.05</v>
+      </c>
+      <c r="J19" s="14">
+        <v>45</v>
+      </c>
+      <c r="K19" s="24">
+        <v>394657.88</v>
+      </c>
+      <c r="L19" s="14">
+        <v>21</v>
+      </c>
+      <c r="M19" s="24">
+        <v>13747</v>
+      </c>
+      <c r="N19" s="10">
+        <f>M19+K19+I19+G19+F19+D19</f>
+        <v>14694737.11</v>
+      </c>
+      <c r="O19" s="8">
+        <f>E19+H19+J19+L19+C19</f>
+        <v>354</v>
+      </c>
+      <c r="P19" s="10">
+        <f>P18+N19</f>
+        <v>1028826719.36</v>
+      </c>
+      <c r="Q19" s="38">
+        <f>P19-W19</f>
+        <v>476731819.36</v>
+      </c>
+      <c r="R19" s="42">
+        <v>14933000</v>
+      </c>
+      <c r="S19" s="43">
+        <v>355</v>
+      </c>
+      <c r="T19" s="44">
+        <v>1027895800</v>
+      </c>
+      <c r="U19" s="44"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="48">
+        <f>V19+W18</f>
+        <v>552094900</v>
+      </c>
     </row>
     <row r="21" ht="89" customHeight="1" spans="1:23">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
     </row>
     <row r="22" ht="41" customHeight="1" spans="1:23">
-      <c r="A22" s="20"/>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/wuhan_redcorss.xlsx
+++ b/wuhan_redcorss.xlsx
@@ -19,7 +19,7 @@
     <t>武汉红十字会捐款收支情况</t>
   </si>
   <si>
-    <t>时间：1月24日--2月5日    金额单位：元</t>
+    <t>时间：1月24日--2月11日    金额单位：元</t>
   </si>
   <si>
     <t>序号</t>
@@ -92,10 +92,9 @@
   </si>
   <si>
     <t>标红的地方是明现有问题的地方：
-1、1月31日，仅交通银行加农业银行的金额就超过了官方公示的当日收款300万元；
-2、28日官方公示了  22日至28日 的数据，此数据现实累计捐款为3.864亿，然而29日公布的累计数只有0.855亿；
-3、官方公示的24日至28日累计捐款人次有明显错误，累计数越来越小，而且和事实不符合，故改为捐款人次；
-4、29日、30日官方公示的累计数据，应该是算漏了28日以前的捐款，即使这样依然有问题，2月1日的公示就比应该有的累计数额少。</t>
+1、28日官方公示了  22日至28日 的数据，此数据现实累计捐款为3.864亿，然而29日公布的累计数只有0.855亿；
+3、官方公示的24日至28日累计捐款人次有明显错误，累计数越来越小，与事实不符合，故改为捐款人次；
+4、29日、30日官方公示的累计数据，应该是算漏了28日以前的捐款。加上28日累计数据后，2月1日起公示金额就和统计的实际金额差距不大了。</t>
   </si>
   <si>
     <t>目前数据最为可信的地方是，每天捐款的人数在明显减少，尤其是支付宝。
@@ -107,12 +106,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -200,10 +199,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,9 +215,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,41 +252,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,6 +276,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -291,13 +335,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,44 +342,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -353,19 +352,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,7 +502,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,151 +526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,11 +675,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,11 +723,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,21 +762,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -758,21 +772,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -781,19 +780,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -802,100 +801,100 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -907,26 +906,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -948,26 +947,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -990,28 +989,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1032,34 +1034,40 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1071,10 +1079,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1400,16 +1411,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7:P19"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="3.86607142857143" customWidth="1"/>
-    <col min="2" max="2" width="10.0803571428571" customWidth="1"/>
+    <col min="2" max="2" width="11.5892857142857" customWidth="1"/>
     <col min="3" max="3" width="9.58928571428571" customWidth="1"/>
     <col min="4" max="4" width="10.8928571428571" customWidth="1"/>
     <col min="5" max="8" width="9.58928571428571" customWidth="1"/>
@@ -1499,20 +1510,20 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="30" t="s">
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="45"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="48"/>
     </row>
     <row r="4" ht="22" customHeight="1" spans="1:23">
       <c r="A4" s="3"/>
@@ -1528,7 +1539,7 @@
       <c r="H4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1537,16 +1548,16 @@
         <v>11</v>
       </c>
       <c r="M4" s="4"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="46"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="49"/>
     </row>
     <row r="5" ht="38" customHeight="1" spans="1:23">
       <c r="A5" s="3"/>
@@ -1587,31 +1598,31 @@
       <c r="N5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="34" t="s">
+      <c r="Q5" s="35" t="s">
         <v>19</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="34" t="s">
+      <c r="S5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="47" t="s">
+      <c r="U5" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="34" t="s">
+      <c r="V5" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="34" t="s">
+      <c r="W5" s="35" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1627,12 +1638,12 @@
       <c r="E6" s="20"/>
       <c r="F6" s="5"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="10">
         <f t="shared" ref="N6:N13" si="0">D6+F6+G6+I6+K6+M6</f>
         <v>0</v>
@@ -1641,18 +1652,18 @@
         <f>E6+H6+J6+L6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="36"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="37"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="37">
+      <c r="S6" s="40">
         <v>11578</v>
       </c>
       <c r="T6" s="10">
         <v>13786152.9</v>
       </c>
-      <c r="U6" s="47"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="48"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="51"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:23">
       <c r="A7" s="6">
@@ -1670,12 +1681,12 @@
       <c r="E7" s="20"/>
       <c r="F7" s="5"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="35"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="36"/>
       <c r="N7" s="10">
         <f t="shared" si="0"/>
         <v>210783.19</v>
@@ -1688,17 +1699,17 @@
         <f>P6+N7</f>
         <v>210783.19</v>
       </c>
-      <c r="Q7" s="36"/>
+      <c r="Q7" s="37"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="37">
+      <c r="S7" s="40">
         <v>16638</v>
       </c>
       <c r="T7" s="10">
         <v>19206664.41</v>
       </c>
-      <c r="U7" s="47"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="48"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="51"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:23">
       <c r="A8" s="6">
@@ -1720,12 +1731,12 @@
       <c r="G8" s="21">
         <v>496345.95</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="35"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="36"/>
       <c r="N8" s="10">
         <f t="shared" si="0"/>
         <v>5257374.63</v>
@@ -1738,17 +1749,17 @@
         <f>P7+N8</f>
         <v>5468157.82</v>
       </c>
-      <c r="Q8" s="36"/>
+      <c r="Q8" s="37"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="37">
+      <c r="S8" s="40">
         <v>13896</v>
       </c>
       <c r="T8" s="10">
         <v>50837618.7</v>
       </c>
-      <c r="U8" s="47"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="48"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="51"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:23">
       <c r="A9" s="6">
@@ -1770,12 +1781,12 @@
       <c r="G9" s="21">
         <v>551987.09</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="35"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="36"/>
       <c r="N9" s="10">
         <f t="shared" si="0"/>
         <v>3156996.54</v>
@@ -1788,17 +1799,17 @@
         <f>P8+N9</f>
         <v>8625154.36</v>
       </c>
-      <c r="Q9" s="36"/>
+      <c r="Q9" s="37"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="37">
+      <c r="S9" s="40">
         <v>8015</v>
       </c>
       <c r="T9" s="10">
         <v>53403774.88</v>
       </c>
-      <c r="U9" s="47"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="48"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="51"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:23">
       <c r="A10" s="6">
@@ -1820,22 +1831,22 @@
       <c r="G10" s="21">
         <v>359960.01</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="24">
         <v>2856</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="29">
         <v>314540755.69</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="24">
         <v>746</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="29">
         <v>61609585.05</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="30">
         <v>48740</v>
       </c>
-      <c r="M10" s="36">
+      <c r="M10" s="37">
         <v>10272810.33</v>
       </c>
       <c r="N10" s="10">
@@ -1843,19 +1854,19 @@
         <v>389083592.98</v>
       </c>
       <c r="O10" s="8">
-        <f t="shared" si="1"/>
-        <v>77041</v>
+        <f>E10+H10+J10+L10</f>
+        <v>58148</v>
       </c>
       <c r="P10" s="10">
         <f>P9+N10</f>
         <v>397708747.34</v>
       </c>
-      <c r="Q10" s="38">
+      <c r="Q10" s="41">
         <f>P10-W10</f>
         <v>343794147.34</v>
       </c>
       <c r="R10" s="4"/>
-      <c r="S10" s="37">
+      <c r="S10" s="40">
         <v>3876</v>
       </c>
       <c r="T10" s="10">
@@ -1865,7 +1876,7 @@
       <c r="V10" s="10">
         <v>53914600</v>
       </c>
-      <c r="W10" s="48">
+      <c r="W10" s="51">
         <f>V10+W9</f>
         <v>53914600</v>
       </c>
@@ -1915,29 +1926,29 @@
         <v>84208421.85</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" si="1"/>
-        <v>30928</v>
+        <f t="shared" ref="O11:O19" si="2">E11+H11+J11+L11</f>
+        <v>17603</v>
       </c>
       <c r="P11" s="10">
         <f>P10+N11</f>
         <v>481917169.19</v>
       </c>
-      <c r="Q11" s="38">
-        <f t="shared" ref="Q11:Q17" si="2">P11-W11</f>
+      <c r="Q11" s="41">
+        <f t="shared" ref="Q11:Q19" si="3">P11-W11</f>
         <v>428002569.19</v>
       </c>
       <c r="R11" s="10"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="39">
+      <c r="T11" s="42">
         <v>85501100</v>
       </c>
-      <c r="U11" s="49"/>
+      <c r="U11" s="52"/>
       <c r="V11" s="10"/>
-      <c r="W11" s="48">
-        <f t="shared" ref="W11:W17" si="3">V11+W10</f>
+      <c r="W11" s="51">
+        <f t="shared" ref="W11:W19" si="4">V11+W10</f>
         <v>53914600</v>
       </c>
-      <c r="Z11" s="50"/>
+      <c r="Z11" s="54"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:26">
       <c r="A12" s="6">
@@ -1982,33 +1993,33 @@
         <v>134937252.28</v>
       </c>
       <c r="O12" s="8">
-        <f t="shared" si="1"/>
-        <v>17840</v>
+        <f t="shared" si="2"/>
+        <v>8285</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P11:P17" si="4">P11+N12</f>
+        <f t="shared" ref="P11:P19" si="5">P11+N12</f>
         <v>616854421.47</v>
       </c>
-      <c r="Q12" s="38">
-        <f t="shared" si="2"/>
+      <c r="Q12" s="41">
+        <f t="shared" si="3"/>
         <v>458261921.47</v>
       </c>
-      <c r="R12" s="40">
+      <c r="R12" s="43">
         <v>134690500</v>
       </c>
       <c r="S12" s="8"/>
-      <c r="T12" s="39">
+      <c r="T12" s="42">
         <v>379055000</v>
       </c>
-      <c r="U12" s="39"/>
+      <c r="U12" s="42"/>
       <c r="V12" s="10">
         <v>104677900</v>
       </c>
-      <c r="W12" s="48">
-        <f t="shared" si="3"/>
+      <c r="W12" s="51">
+        <f t="shared" si="4"/>
         <v>158592500</v>
       </c>
-      <c r="Z12" s="50"/>
+      <c r="Z12" s="54"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:26">
       <c r="A13" s="6">
@@ -2055,33 +2066,33 @@
         <v>84680824.52</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" si="1"/>
-        <v>10276</v>
+        <f t="shared" si="2"/>
+        <v>6501</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>701535245.99</v>
       </c>
-      <c r="Q13" s="38">
-        <f t="shared" si="2"/>
+      <c r="Q13" s="41">
+        <f t="shared" si="3"/>
         <v>339790345.99</v>
       </c>
-      <c r="R13" s="39">
+      <c r="R13" s="42">
         <v>80622600</v>
       </c>
       <c r="S13" s="8"/>
-      <c r="T13" s="39">
+      <c r="T13" s="42">
         <v>699531100</v>
       </c>
-      <c r="U13" s="39"/>
+      <c r="U13" s="42"/>
       <c r="V13" s="10">
         <v>203152400</v>
       </c>
-      <c r="W13" s="48">
-        <f t="shared" si="3"/>
+      <c r="W13" s="51">
+        <f t="shared" si="4"/>
         <v>361744900</v>
       </c>
-      <c r="Z13" s="50"/>
+      <c r="Z13" s="54"/>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:26">
       <c r="A14" s="6">
@@ -2126,31 +2137,31 @@
         <v>19090783.05</v>
       </c>
       <c r="O14" s="8">
-        <f>E14+H14+J14+L14+C13</f>
-        <v>7828</v>
+        <f t="shared" si="2"/>
+        <v>4053</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>720626029.04</v>
       </c>
-      <c r="Q14" s="38">
-        <f t="shared" si="2"/>
+      <c r="Q14" s="41">
+        <f t="shared" si="3"/>
         <v>358881129.04</v>
       </c>
       <c r="R14" s="10">
         <v>19458100</v>
       </c>
       <c r="S14" s="8"/>
-      <c r="T14" s="39">
+      <c r="T14" s="42">
         <v>718989200</v>
       </c>
-      <c r="U14" s="49"/>
+      <c r="U14" s="52"/>
       <c r="V14" s="10"/>
-      <c r="W14" s="48">
-        <f t="shared" si="3"/>
+      <c r="W14" s="51">
+        <f t="shared" si="4"/>
         <v>361744900</v>
       </c>
-      <c r="Z14" s="50"/>
+      <c r="Z14" s="54"/>
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:23">
       <c r="A15" s="6">
@@ -2195,21 +2206,21 @@
         <v>145133018.92</v>
       </c>
       <c r="O15" s="8">
-        <f>E15+H15+J15+L15+C14</f>
-        <v>5079</v>
+        <f t="shared" si="2"/>
+        <v>2358</v>
       </c>
       <c r="P15" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>865759047.96</v>
       </c>
-      <c r="Q15" s="38">
-        <f t="shared" si="2"/>
+      <c r="Q15" s="41">
+        <f t="shared" si="3"/>
         <v>498914147.96</v>
       </c>
       <c r="R15" s="10">
         <v>144959800</v>
       </c>
-      <c r="S15" s="41">
+      <c r="S15" s="44">
         <v>875</v>
       </c>
       <c r="T15" s="10">
@@ -2221,8 +2232,8 @@
       <c r="V15" s="10">
         <v>5100000</v>
       </c>
-      <c r="W15" s="48">
-        <f t="shared" si="3"/>
+      <c r="W15" s="51">
+        <f t="shared" si="4"/>
         <v>366844900</v>
       </c>
     </row>
@@ -2261,21 +2272,21 @@
         <v>56228308.58</v>
       </c>
       <c r="O16" s="8">
-        <f>E16+H16+J16+L16+C15</f>
-        <v>2887</v>
+        <f t="shared" si="2"/>
+        <v>692</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>921987356.54</v>
       </c>
-      <c r="Q16" s="38">
-        <f t="shared" si="2"/>
+      <c r="Q16" s="41">
+        <f t="shared" si="3"/>
         <v>369892456.54</v>
       </c>
       <c r="R16" s="10">
         <v>56259300</v>
       </c>
-      <c r="S16" s="41">
+      <c r="S16" s="44">
         <v>802</v>
       </c>
       <c r="T16" s="11">
@@ -2285,8 +2296,8 @@
       <c r="V16" s="10">
         <v>185250000</v>
       </c>
-      <c r="W16" s="48">
-        <f t="shared" si="3"/>
+      <c r="W16" s="51">
+        <f t="shared" si="4"/>
         <v>552094900</v>
       </c>
     </row>
@@ -2325,21 +2336,21 @@
         <v>62809749.27</v>
       </c>
       <c r="O17" s="8">
-        <f>E17+H17+J17+L17+C17</f>
+        <f t="shared" si="2"/>
         <v>791</v>
       </c>
       <c r="P17" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>984797105.81</v>
       </c>
-      <c r="Q17" s="38">
-        <f t="shared" si="2"/>
+      <c r="Q17" s="41">
+        <f t="shared" si="3"/>
         <v>432702205.81</v>
       </c>
       <c r="R17" s="10">
         <v>63073400</v>
       </c>
-      <c r="S17" s="41">
+      <c r="S17" s="44">
         <v>792</v>
       </c>
       <c r="T17" s="11">
@@ -2347,8 +2358,8 @@
       </c>
       <c r="U17" s="11"/>
       <c r="V17" s="10"/>
-      <c r="W17" s="48">
-        <f t="shared" si="3"/>
+      <c r="W17" s="51">
+        <f t="shared" si="4"/>
         <v>552094900</v>
       </c>
     </row>
@@ -2359,31 +2370,31 @@
       <c r="B18" s="7">
         <v>43866.1</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="12">
         <v>1934</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <v>238279.83</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="14">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="12">
         <v>299</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="21">
         <v>28301828.28</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="12">
         <v>24</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="21">
         <v>353748.33</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="12">
         <v>612</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="21">
         <v>441020</v>
       </c>
       <c r="N18" s="10">
@@ -2391,30 +2402,30 @@
         <v>29334876.44</v>
       </c>
       <c r="O18" s="8">
-        <f>E18+H18+J18+L18+C18</f>
-        <v>2869</v>
+        <f t="shared" si="2"/>
+        <v>935</v>
       </c>
       <c r="P18" s="10">
-        <f>P17+N18</f>
+        <f t="shared" si="5"/>
         <v>1014131982.25</v>
       </c>
-      <c r="Q18" s="38">
-        <f>P18-W18</f>
+      <c r="Q18" s="41">
+        <f t="shared" si="3"/>
         <v>462037082.25</v>
       </c>
-      <c r="R18" s="42">
+      <c r="R18" s="10">
         <v>29448800</v>
       </c>
-      <c r="S18" s="43">
+      <c r="S18" s="44">
         <v>935</v>
       </c>
-      <c r="T18" s="44">
+      <c r="T18" s="11">
         <v>1012962800</v>
       </c>
-      <c r="U18" s="44"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="48">
-        <f>V18+W17</f>
+      <c r="U18" s="11"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="51">
+        <f t="shared" si="4"/>
         <v>552094900</v>
       </c>
     </row>
@@ -2425,120 +2436,409 @@
       <c r="B19" s="7">
         <v>43867.1</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14">
+      <c r="C19" s="12">
+        <v>3074</v>
+      </c>
+      <c r="D19" s="12">
+        <v>933274.13</v>
+      </c>
+      <c r="E19" s="12">
         <v>12</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="12">
         <v>19115.18</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="14">
+      <c r="G19" s="21"/>
+      <c r="H19" s="12">
         <v>276</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="21">
         <v>14267217.05</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="12">
         <v>45</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="21">
         <v>394657.88</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="12">
         <v>21</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M19" s="21">
         <v>13747</v>
       </c>
       <c r="N19" s="10">
         <f>M19+K19+I19+G19+F19+D19</f>
-        <v>14694737.11</v>
+        <v>15628011.24</v>
       </c>
       <c r="O19" s="8">
-        <f>E19+H19+J19+L19+C19</f>
+        <f t="shared" si="2"/>
         <v>354</v>
       </c>
       <c r="P19" s="10">
-        <f>P18+N19</f>
-        <v>1028826719.36</v>
-      </c>
-      <c r="Q19" s="38">
-        <f>P19-W19</f>
-        <v>476731819.36</v>
-      </c>
-      <c r="R19" s="42">
+        <f t="shared" si="5"/>
+        <v>1029759993.49</v>
+      </c>
+      <c r="Q19" s="41">
+        <f t="shared" si="3"/>
+        <v>477665093.49</v>
+      </c>
+      <c r="R19" s="10">
         <v>14933000</v>
       </c>
-      <c r="S19" s="43">
+      <c r="S19" s="44">
         <v>355</v>
       </c>
-      <c r="T19" s="44">
+      <c r="T19" s="11">
         <v>1027895800</v>
       </c>
-      <c r="U19" s="44"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="48">
-        <f>V19+W18</f>
+      <c r="U19" s="11"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="51">
+        <f t="shared" si="4"/>
         <v>552094900</v>
       </c>
     </row>
-    <row r="21" ht="89" customHeight="1" spans="1:23">
-      <c r="A21" s="15" t="s">
+    <row r="20" ht="27" customHeight="1" spans="1:23">
+      <c r="A20" s="6">
+        <v>15</v>
+      </c>
+      <c r="B20" s="7">
+        <v>43868.1</v>
+      </c>
+      <c r="C20" s="14">
+        <v>2514</v>
+      </c>
+      <c r="D20" s="14">
+        <v>735361.28</v>
+      </c>
+      <c r="E20" s="14">
+        <v>999</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="25">
+        <v>59255.06</v>
+      </c>
+      <c r="H20" s="14">
+        <v>260</v>
+      </c>
+      <c r="I20" s="25">
+        <v>25832193.6</v>
+      </c>
+      <c r="J20" s="14">
+        <v>44</v>
+      </c>
+      <c r="K20" s="25">
+        <v>544923.61</v>
+      </c>
+      <c r="L20" s="14"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="10">
+        <f>M20+K20+I20+G20+F20+D20</f>
+        <v>27171733.55</v>
+      </c>
+      <c r="O20" s="8">
+        <f>E20+H20+J20+L20+C20</f>
+        <v>3817</v>
+      </c>
+      <c r="P20" s="10">
+        <f>P19+N20</f>
+        <v>1056931727.04</v>
+      </c>
+      <c r="Q20" s="41">
+        <f>P20-W20</f>
+        <v>504836827.04</v>
+      </c>
+      <c r="R20" s="38">
+        <v>27310400</v>
+      </c>
+      <c r="S20" s="45">
+        <v>2818</v>
+      </c>
+      <c r="T20" s="46">
+        <v>1055206200</v>
+      </c>
+      <c r="U20" s="46"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="51">
+        <f>V20+W19</f>
+        <v>552094900</v>
+      </c>
+    </row>
+    <row r="21" ht="27" customHeight="1" spans="1:23">
+      <c r="A21" s="6">
+        <v>16</v>
+      </c>
+      <c r="B21" s="7">
+        <v>43869.1</v>
+      </c>
+      <c r="C21" s="14">
+        <v>2583</v>
+      </c>
+      <c r="D21" s="14">
+        <v>692146.88</v>
+      </c>
+      <c r="E21" s="14">
+        <v>955</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="25">
+        <v>53733.3</v>
+      </c>
+      <c r="H21" s="14">
+        <v>387</v>
+      </c>
+      <c r="I21" s="25">
+        <v>23628748.38</v>
+      </c>
+      <c r="J21" s="14">
+        <v>41</v>
+      </c>
+      <c r="K21" s="25">
+        <v>244312.49</v>
+      </c>
+      <c r="L21" s="14"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="10">
+        <f>M21+K21+I21+G21+F21+D21</f>
+        <v>24618941.05</v>
+      </c>
+      <c r="O21" s="8">
+        <f>E21+H21+J21+L21+C21</f>
+        <v>3966</v>
+      </c>
+      <c r="P21" s="10">
+        <f>P20+N21</f>
+        <v>1081550668.09</v>
+      </c>
+      <c r="Q21" s="41">
+        <f>P21-W21</f>
+        <v>529455768.09</v>
+      </c>
+      <c r="R21" s="38">
+        <v>24608400</v>
+      </c>
+      <c r="S21" s="45">
+        <v>3011</v>
+      </c>
+      <c r="T21" s="46">
+        <v>1079814600</v>
+      </c>
+      <c r="U21" s="46"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="51">
+        <f>V21+W20</f>
+        <v>552094900</v>
+      </c>
+    </row>
+    <row r="22" ht="27" customHeight="1" spans="1:23">
+      <c r="A22" s="6">
+        <v>17</v>
+      </c>
+      <c r="B22" s="7">
+        <v>43870.1</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1997</v>
+      </c>
+      <c r="D22" s="14">
+        <v>647350.06</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="14">
+        <v>279</v>
+      </c>
+      <c r="I22" s="25">
+        <v>16183252.18</v>
+      </c>
+      <c r="J22" s="14">
+        <v>41</v>
+      </c>
+      <c r="K22" s="25">
+        <v>184038.04</v>
+      </c>
+      <c r="L22" s="14"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="10">
+        <f>M22+K22+I22+G22+F22+D22</f>
+        <v>17014640.28</v>
+      </c>
+      <c r="O22" s="8">
+        <f>E22+H22+J22+L22+C22</f>
+        <v>2317</v>
+      </c>
+      <c r="P22" s="10">
+        <f>P21+N22</f>
+        <v>1098565308.37</v>
+      </c>
+      <c r="Q22" s="41">
+        <f>P22-W22</f>
+        <v>546470408.37</v>
+      </c>
+      <c r="R22" s="38">
+        <v>17089400</v>
+      </c>
+      <c r="S22" s="45">
+        <v>2318</v>
+      </c>
+      <c r="T22" s="46">
+        <v>1096904000</v>
+      </c>
+      <c r="U22" s="46"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="51">
+        <f>V22+W21</f>
+        <v>552094900</v>
+      </c>
+    </row>
+    <row r="23" ht="27" customHeight="1" spans="1:23">
+      <c r="A23" s="6">
+        <v>18</v>
+      </c>
+      <c r="B23" s="7">
+        <v>43871.1</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1877</v>
+      </c>
+      <c r="D23" s="14">
+        <v>520365</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="14">
+        <v>396</v>
+      </c>
+      <c r="I23" s="25">
+        <v>10414268.39</v>
+      </c>
+      <c r="J23" s="14">
+        <v>55</v>
+      </c>
+      <c r="K23" s="25">
+        <v>1287457.16</v>
+      </c>
+      <c r="L23" s="14"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="10">
+        <f>M23+K23+I23+G23+F23+D23</f>
+        <v>12222090.55</v>
+      </c>
+      <c r="O23" s="8">
+        <f>E23+H23+J23+L23+C23</f>
+        <v>2328</v>
+      </c>
+      <c r="P23" s="10">
+        <f>P22+N23</f>
+        <v>1110787398.92</v>
+      </c>
+      <c r="Q23" s="41">
+        <f>P23-W23</f>
+        <v>558692498.92</v>
+      </c>
+      <c r="R23" s="38">
+        <v>12347500</v>
+      </c>
+      <c r="S23" s="45">
+        <v>2329</v>
+      </c>
+      <c r="T23" s="46">
+        <v>1109251500</v>
+      </c>
+      <c r="U23" s="46"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="51">
+        <f>V23+W22</f>
+        <v>552094900</v>
+      </c>
+    </row>
+    <row r="24" ht="27" customHeight="1" spans="1:23">
+      <c r="A24" s="6">
+        <v>19</v>
+      </c>
+      <c r="B24" s="7">
+        <v>43872.1</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="53"/>
+    </row>
+    <row r="26" ht="89" customHeight="1" spans="1:23">
+      <c r="A26" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B26" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
     </row>
-    <row r="22" ht="41" customHeight="1" spans="1:23">
-      <c r="A22" s="17"/>
-      <c r="B22" s="16" t="s">
+    <row r="27" ht="41" customHeight="1" spans="1:23">
+      <c r="A27" s="17"/>
+      <c r="B27" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2550,10 +2850,10 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B21:W21"/>
-    <mergeCell ref="B22:W22"/>
+    <mergeCell ref="B26:W26"/>
+    <mergeCell ref="B27:W27"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="N3:Q4"/>
     <mergeCell ref="R3:W4"/>

--- a/wuhan_redcorss.xlsx
+++ b/wuhan_redcorss.xlsx
@@ -91,8 +91,7 @@
     <t>存在问题</t>
   </si>
   <si>
-    <t>标红的地方是明现有问题的地方：
-1、28日官方公示了  22日至28日 的数据，此数据现实累计捐款为3.864亿，然而29日公布的累计数只有0.855亿；
+    <t>1、28日官方公示了  22日至28日 的数据，此数据现实累计捐款为3.864亿，然而29日公布的累计数只有0.855亿；
 3、官方公示的24日至28日累计捐款人次有明显错误，累计数越来越小，与事实不符合，故改为捐款人次；
 4、29日、30日官方公示的累计数据，应该是算漏了28日以前的捐款。加上28日累计数据后，2月1日起公示金额就和统计的实际金额差距不大了。</t>
   </si>
@@ -107,11 +106,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -199,14 +198,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -216,6 +207,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,15 +236,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -255,6 +262,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,7 +284,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,8 +297,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,6 +320,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -313,31 +336,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,7 +351,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +369,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,7 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,7 +411,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,13 +453,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,121 +531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,39 +675,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -723,17 +689,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,8 +701,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,6 +747,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -780,124 +779,124 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -906,28 +905,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1004,6 +1006,9 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1019,6 +1024,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1040,6 +1048,9 @@
     <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1061,7 +1072,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1085,8 +1099,8 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1411,10 +1425,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1432,1413 +1446,1891 @@
     <col min="14" max="18" width="13.3839285714286" customWidth="1"/>
     <col min="19" max="19" width="10.25" customWidth="1"/>
     <col min="20" max="20" width="14.7142857142857" customWidth="1"/>
-    <col min="21" max="22" width="13.7142857142857" customWidth="1"/>
-    <col min="23" max="23" width="13.3839285714286" customWidth="1"/>
+    <col min="21" max="21" width="13.7142857142857" customWidth="1"/>
+    <col min="22" max="22" width="13.7142857142857" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.3660714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.2" spans="1:23">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="31" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="31" t="s">
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="48"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="53"/>
     </row>
     <row r="4" ht="22" customHeight="1" spans="1:23">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="H4" s="19" t="s">
+      <c r="F4" s="5"/>
+      <c r="H4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="28"/>
+      <c r="J4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4" t="s">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="49"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="54"/>
     </row>
     <row r="5" ht="38" customHeight="1" spans="1:23">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="35" t="s">
+      <c r="O5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="35" t="s">
+      <c r="P5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="35" t="s">
+      <c r="Q5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="35" t="s">
+      <c r="S5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="T5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="50" t="s">
+      <c r="U5" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="35" t="s">
+      <c r="V5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="35" t="s">
+      <c r="W5" s="38" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:23">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>43854.1</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="10">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="11">
         <f t="shared" ref="N6:N13" si="0">D6+F6+G6+I6+K6+M6</f>
         <v>0</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="9">
         <f>E6+H6+J6+L6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="40">
+      <c r="P6" s="23"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="44">
         <v>11578</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="11">
         <v>13786152.9</v>
       </c>
-      <c r="U6" s="50"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="51"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="56"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:23">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>43855.1</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>1207</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>210783.19</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="10">
+      <c r="E7" s="21"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="11">
         <f t="shared" si="0"/>
         <v>210783.19</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="9">
         <f t="shared" ref="O7:O13" si="1">E7+H7+J7+L7+C7</f>
         <v>1207</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="11">
         <f>P6+N7</f>
         <v>210783.19</v>
       </c>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="40">
+      <c r="Q7" s="40"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="44">
         <v>16638</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T7" s="11">
         <v>19206664.41</v>
       </c>
-      <c r="U7" s="50"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="51"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="56"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:23">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>43856.1</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>49691</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="11">
         <v>4761028.68</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="21">
         <v>6203</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="21">
+      <c r="F8" s="6"/>
+      <c r="G8" s="22">
         <v>496345.95</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="10">
+      <c r="H8" s="24"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="11">
         <f t="shared" si="0"/>
         <v>5257374.63</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="9">
         <f t="shared" si="1"/>
         <v>55894</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="11">
         <f>P7+N8</f>
         <v>5468157.82</v>
       </c>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="40">
+      <c r="Q8" s="40"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="44">
         <v>13896</v>
       </c>
-      <c r="T8" s="10">
-        <v>50837618.7</v>
-      </c>
-      <c r="U8" s="50"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="51"/>
+      <c r="T8" s="11">
+        <v>50837816.7</v>
+      </c>
+      <c r="U8" s="55"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="56"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:23">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>43857.1</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>23772</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
         <v>2605009.45</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="21">
         <v>8130</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="21">
+      <c r="F9" s="6"/>
+      <c r="G9" s="22">
         <v>551987.09</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="10">
+      <c r="H9" s="24"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="11">
         <f t="shared" si="0"/>
         <v>3156996.54</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="9">
         <f t="shared" si="1"/>
         <v>31902</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="11">
         <f>P8+N9</f>
         <v>8625154.36</v>
       </c>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="40">
+      <c r="Q9" s="40"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="44">
         <v>8015</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T9" s="11">
         <v>53403774.88</v>
       </c>
-      <c r="U9" s="50"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="51"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="56"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:23">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>43858.1</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>18893</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <v>2300481.9</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="21">
         <v>5806</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="21">
+      <c r="F10" s="6"/>
+      <c r="G10" s="22">
         <v>359960.01</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="25">
         <v>2856</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="31">
         <v>314540755.69</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="25">
         <v>746</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="31">
         <v>61609585.05</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="32">
         <v>48740</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="40">
         <v>10272810.33</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="11">
         <f t="shared" si="0"/>
         <v>389083592.98</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="9">
         <f>E10+H10+J10+L10</f>
         <v>58148</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="11">
         <f>P9+N10</f>
         <v>397708747.34</v>
       </c>
-      <c r="Q10" s="41">
+      <c r="Q10" s="45">
         <f>P10-W10</f>
-        <v>343794147.34</v>
-      </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="40">
-        <v>3876</v>
-      </c>
-      <c r="T10" s="10">
+        <v>397708747.34</v>
+      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" s="44">
+        <v>3879</v>
+      </c>
+      <c r="T10" s="11">
         <v>80266415.44</v>
       </c>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10">
-        <v>53914600</v>
-      </c>
-      <c r="W10" s="51">
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="56">
         <f>V10+W9</f>
-        <v>53914600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:26">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>6</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>43859.1</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <v>13325</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="11">
         <v>2173942.33</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="9">
         <v>4714</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="22">
         <v>215973.39</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="12">
         <v>275823.38</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="9">
         <v>1076</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="11">
         <v>64842370.64</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="9">
         <v>147</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="12">
         <v>12926076.11</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="9">
         <v>11666</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="11">
         <v>3774236</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="11">
         <f t="shared" si="0"/>
         <v>84208421.85</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="9">
         <f t="shared" ref="O11:O19" si="2">E11+H11+J11+L11</f>
         <v>17603</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="11">
         <f>P10+N11</f>
         <v>481917169.19</v>
       </c>
-      <c r="Q11" s="41">
-        <f t="shared" ref="Q11:Q19" si="3">P11-W11</f>
-        <v>428002569.19</v>
-      </c>
-      <c r="R11" s="10"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="42">
+      <c r="Q11" s="45">
+        <f t="shared" ref="Q11:Q24" si="3">P11-W11</f>
+        <v>481917169.19</v>
+      </c>
+      <c r="R11" s="11"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="46">
         <v>85501100</v>
       </c>
-      <c r="U11" s="52"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="51">
-        <f t="shared" ref="W11:W19" si="4">V11+W10</f>
-        <v>53914600</v>
-      </c>
-      <c r="Z11" s="54"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="56">
+        <f>V11+W10</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="59"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:26">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>7</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>43860.1</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <v>9555</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="12">
         <v>1712639.86</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="9">
         <v>4095</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11">
         <v>246705.33</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="9">
         <v>1098</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="11">
         <v>125782294.95</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="9">
         <v>151</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="11">
         <v>5709030.14</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="9">
         <v>2941</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="11">
         <v>1486582</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="11">
         <f t="shared" si="0"/>
         <v>134937252.28</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="9">
         <f t="shared" si="2"/>
         <v>8285</v>
       </c>
-      <c r="P12" s="10">
-        <f t="shared" ref="P11:P19" si="5">P11+N12</f>
+      <c r="P12" s="11">
+        <f t="shared" ref="P11:P24" si="4">P11+N12</f>
         <v>616854421.47</v>
       </c>
-      <c r="Q12" s="41">
+      <c r="Q12" s="45">
         <f t="shared" si="3"/>
-        <v>458261921.47</v>
-      </c>
-      <c r="R12" s="43">
+        <v>616854421.47</v>
+      </c>
+      <c r="R12" s="47">
         <v>134690500</v>
       </c>
-      <c r="S12" s="8"/>
-      <c r="T12" s="42">
+      <c r="S12" s="9"/>
+      <c r="T12" s="46">
         <v>379055000</v>
       </c>
-      <c r="U12" s="42"/>
-      <c r="V12" s="10">
-        <v>104677900</v>
-      </c>
-      <c r="W12" s="51">
-        <f t="shared" si="4"/>
-        <v>158592500</v>
-      </c>
-      <c r="Z12" s="54"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="56">
+        <f>V12+W11</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="59"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:26">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>43861.1</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="9">
         <v>3775</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="11">
         <v>421921.47</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="9">
         <v>3385</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="11">
         <v>5000</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="11">
         <v>185622.8</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="9">
         <v>1343</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="11">
         <v>79369992.88</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="9">
         <v>111</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="11">
         <v>3786082.36</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="9">
         <v>1662</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="11">
         <v>912205.01</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="11">
         <f t="shared" si="0"/>
         <v>84680824.52</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="9">
         <f t="shared" si="2"/>
         <v>6501</v>
       </c>
-      <c r="P13" s="10">
-        <f t="shared" si="5"/>
+      <c r="P13" s="11">
+        <f t="shared" si="4"/>
         <v>701535245.99</v>
       </c>
-      <c r="Q13" s="41">
+      <c r="Q13" s="45">
         <f t="shared" si="3"/>
-        <v>339790345.99</v>
-      </c>
-      <c r="R13" s="42">
+        <v>701535245.99</v>
+      </c>
+      <c r="R13" s="46">
         <v>80622600</v>
       </c>
-      <c r="S13" s="8"/>
-      <c r="T13" s="42">
+      <c r="S13" s="9"/>
+      <c r="T13" s="46">
         <v>699531100</v>
       </c>
-      <c r="U13" s="42"/>
-      <c r="V13" s="10">
-        <v>203152400</v>
-      </c>
-      <c r="W13" s="51">
-        <f t="shared" si="4"/>
-        <v>361744900</v>
-      </c>
-      <c r="Z13" s="54"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="56">
+        <f>V13+W12</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="59"/>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:26">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>43862.1</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="13">
         <v>2721</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="13">
         <v>294683.27</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="9">
         <v>2151</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11">
         <v>105533.82</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="9">
         <v>623</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="11">
         <v>17380578.39</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="9">
         <v>63</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="11">
         <v>691209.17</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="9">
         <v>1216</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="11">
         <v>491540.2</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="11">
         <f>D13+F14+G14+I14+K14+M14</f>
         <v>19090783.05</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="9">
         <f t="shared" si="2"/>
         <v>4053</v>
       </c>
-      <c r="P14" s="10">
-        <f t="shared" si="5"/>
+      <c r="P14" s="11">
+        <f t="shared" si="4"/>
         <v>720626029.04</v>
       </c>
-      <c r="Q14" s="41">
+      <c r="Q14" s="45">
         <f t="shared" si="3"/>
-        <v>358881129.04</v>
-      </c>
-      <c r="R14" s="10">
+        <v>720626029.04</v>
+      </c>
+      <c r="R14" s="11">
         <v>19458100</v>
       </c>
-      <c r="S14" s="8"/>
-      <c r="T14" s="42">
+      <c r="S14" s="9"/>
+      <c r="T14" s="46">
         <v>718989200</v>
       </c>
-      <c r="U14" s="52"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="51">
-        <f t="shared" si="4"/>
-        <v>361744900</v>
-      </c>
-      <c r="Z14" s="54"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="56">
+        <f>V14+W13</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="59"/>
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:23">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>43863.1</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="13">
         <v>2195</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="13">
         <v>263681.17</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="13">
         <v>1496</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="21">
+      <c r="F15" s="13"/>
+      <c r="G15" s="22">
         <v>68496.33</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="13">
         <v>326</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="22">
         <v>144137445.3</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="13">
         <v>34</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="13">
         <v>233915.02</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="13">
         <v>502</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="22">
         <v>166548</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="11">
         <f>D14+F15+G15+I15+K15+M15+U15*7</f>
         <v>145133018.92</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="9">
         <f t="shared" si="2"/>
         <v>2358</v>
       </c>
-      <c r="P15" s="10">
-        <f t="shared" si="5"/>
+      <c r="P15" s="11">
+        <f t="shared" si="4"/>
         <v>865759047.96</v>
       </c>
-      <c r="Q15" s="41">
+      <c r="Q15" s="45">
         <f t="shared" si="3"/>
-        <v>498914147.96</v>
-      </c>
-      <c r="R15" s="10">
+        <v>865743898.5086</v>
+      </c>
+      <c r="R15" s="11">
         <v>144959800</v>
       </c>
-      <c r="S15" s="44">
+      <c r="S15" s="48">
         <v>875</v>
       </c>
-      <c r="T15" s="10">
+      <c r="T15" s="11">
         <v>863949000</v>
       </c>
-      <c r="U15" s="11">
+      <c r="U15" s="12">
         <v>33133</v>
       </c>
-      <c r="V15" s="10">
-        <v>5100000</v>
-      </c>
-      <c r="W15" s="51">
-        <f t="shared" si="4"/>
-        <v>366844900</v>
+      <c r="V15" s="11">
+        <v>15149.4514</v>
+      </c>
+      <c r="W15" s="56">
+        <f>V15+W14</f>
+        <v>15149.4514</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1" spans="1:23">
-      <c r="A16" s="6">
+      <c r="A16" s="7">
         <v>11</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>43864.1</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="12">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="13">
         <v>195</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="22">
         <v>54402675.01</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="13">
         <v>47</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="22">
         <v>1255390.4</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="13">
         <v>450</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="22">
         <v>306562</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="11">
         <f>M16+K16+I16+G16+F16+D15</f>
         <v>56228308.58</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="9">
         <f t="shared" si="2"/>
         <v>692</v>
       </c>
-      <c r="P16" s="10">
-        <f t="shared" si="5"/>
+      <c r="P16" s="11">
+        <f t="shared" si="4"/>
         <v>921987356.54</v>
       </c>
-      <c r="Q16" s="41">
+      <c r="Q16" s="45">
         <f t="shared" si="3"/>
-        <v>369892456.54</v>
-      </c>
-      <c r="R16" s="10">
+        <v>921972207.0886</v>
+      </c>
+      <c r="R16" s="11">
         <v>56259300</v>
       </c>
-      <c r="S16" s="44">
+      <c r="S16" s="48">
         <v>802</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="12">
         <v>920440600</v>
       </c>
-      <c r="U16" s="11"/>
-      <c r="V16" s="10">
-        <v>185250000</v>
-      </c>
-      <c r="W16" s="51">
-        <f t="shared" si="4"/>
-        <v>552094900</v>
+      <c r="U16" s="12"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="56">
+        <f>V16+W15</f>
+        <v>15149.4514</v>
       </c>
     </row>
     <row r="17" ht="27" customHeight="1" spans="1:23">
-      <c r="A17" s="6">
+      <c r="A17" s="7">
         <v>12</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="8">
         <v>43865.1</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="12">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="13">
         <v>272</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="22">
         <v>62316505.61</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="13">
         <v>23</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="22">
         <v>163895.66</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="13">
         <v>496</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="22">
         <v>329348</v>
       </c>
-      <c r="N17" s="10">
-        <f>M17+K17+I17+G17+F17+D17</f>
+      <c r="N17" s="11">
+        <f t="shared" ref="N17:N24" si="5">M17+K17+I17+G17+F17+D17</f>
         <v>62809749.27</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="9">
         <f t="shared" si="2"/>
         <v>791</v>
       </c>
-      <c r="P17" s="10">
-        <f t="shared" si="5"/>
+      <c r="P17" s="11">
+        <f t="shared" si="4"/>
         <v>984797105.81</v>
       </c>
-      <c r="Q17" s="41">
+      <c r="Q17" s="45">
         <f t="shared" si="3"/>
-        <v>432702205.81</v>
-      </c>
-      <c r="R17" s="10">
+        <v>984781956.3586</v>
+      </c>
+      <c r="R17" s="11">
         <v>63073400</v>
       </c>
-      <c r="S17" s="44">
+      <c r="S17" s="48">
         <v>792</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T17" s="12">
         <v>983514000</v>
       </c>
-      <c r="U17" s="11"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="51">
-        <f t="shared" si="4"/>
-        <v>552094900</v>
+      <c r="U17" s="12"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="56">
+        <f t="shared" ref="W17:W31" si="6">V17+W16</f>
+        <v>15149.4514</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:23">
-      <c r="A18" s="6">
+      <c r="A18" s="7">
         <v>13</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="8">
         <v>43866.1</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="13">
         <v>1934</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="13">
         <v>238279.83</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="12">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="13">
         <v>299</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="22">
         <v>28301828.28</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="13">
         <v>24</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="22">
         <v>353748.33</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="13">
         <v>612</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="22">
         <v>441020</v>
       </c>
-      <c r="N18" s="10">
-        <f>M18+K18+I18+G18+F18+D18</f>
+      <c r="N18" s="11">
+        <f t="shared" si="5"/>
         <v>29334876.44</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="9">
         <f t="shared" si="2"/>
         <v>935</v>
       </c>
-      <c r="P18" s="10">
-        <f t="shared" si="5"/>
+      <c r="P18" s="11">
+        <f t="shared" si="4"/>
         <v>1014131982.25</v>
       </c>
-      <c r="Q18" s="41">
+      <c r="Q18" s="45">
         <f t="shared" si="3"/>
-        <v>462037082.25</v>
-      </c>
-      <c r="R18" s="10">
+        <v>694810532.7986</v>
+      </c>
+      <c r="R18" s="11">
         <v>29448800</v>
       </c>
-      <c r="S18" s="44">
+      <c r="S18" s="48">
         <v>935</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="12">
         <v>1012962800</v>
       </c>
-      <c r="U18" s="11"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="51">
-        <f t="shared" si="4"/>
-        <v>552094900</v>
+      <c r="U18" s="12"/>
+      <c r="V18" s="1">
+        <v>319306300</v>
+      </c>
+      <c r="W18" s="56">
+        <f t="shared" si="6"/>
+        <v>319321449.4514</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:23">
-      <c r="A19" s="6">
+      <c r="A19" s="7">
         <v>14</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="8">
         <v>43867.1</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="13">
         <v>3074</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="13">
         <v>933274.13</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="13">
         <v>12</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="13">
         <v>19115.18</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="12">
+      <c r="G19" s="22"/>
+      <c r="H19" s="13">
         <v>276</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="22">
         <v>14267217.05</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="13">
         <v>45</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="22">
         <v>394657.88</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="13">
         <v>21</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="22">
         <v>13747</v>
       </c>
-      <c r="N19" s="10">
-        <f>M19+K19+I19+G19+F19+D19</f>
+      <c r="N19" s="11">
+        <f t="shared" si="5"/>
         <v>15628011.24</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="9">
         <f t="shared" si="2"/>
         <v>354</v>
       </c>
-      <c r="P19" s="10">
-        <f t="shared" si="5"/>
+      <c r="P19" s="11">
+        <f t="shared" si="4"/>
         <v>1029759993.49</v>
       </c>
-      <c r="Q19" s="41">
+      <c r="Q19" s="45">
         <f t="shared" si="3"/>
-        <v>477665093.49</v>
-      </c>
-      <c r="R19" s="10">
+        <v>710438544.0386</v>
+      </c>
+      <c r="R19" s="11">
         <v>14933000</v>
       </c>
-      <c r="S19" s="44">
+      <c r="S19" s="48">
         <v>355</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="12">
         <v>1027895800</v>
       </c>
-      <c r="U19" s="11"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="51">
-        <f t="shared" si="4"/>
-        <v>552094900</v>
+      <c r="U19" s="12"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="56">
+        <f t="shared" si="6"/>
+        <v>319321449.4514</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:23">
-      <c r="A20" s="6">
+      <c r="A20" s="7">
         <v>15</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="8">
         <v>43868.1</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>2514</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>735361.28</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>999</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="25">
+      <c r="F20" s="13"/>
+      <c r="G20" s="22">
         <v>59255.06</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>260</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="22">
         <v>25832193.6</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>44</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="22">
         <v>544923.61</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="10">
-        <f>M20+K20+I20+G20+F20+D20</f>
+      <c r="L20" s="13"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="11">
+        <f t="shared" si="5"/>
         <v>27171733.55</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="9">
         <f>E20+H20+J20+L20+C20</f>
         <v>3817</v>
       </c>
-      <c r="P20" s="10">
-        <f>P19+N20</f>
+      <c r="P20" s="11">
+        <f t="shared" si="4"/>
         <v>1056931727.04</v>
       </c>
-      <c r="Q20" s="41">
-        <f>P20-W20</f>
-        <v>504836827.04</v>
-      </c>
-      <c r="R20" s="38">
+      <c r="Q20" s="45">
+        <f t="shared" si="3"/>
+        <v>737610277.5886</v>
+      </c>
+      <c r="R20" s="11">
         <v>27310400</v>
       </c>
-      <c r="S20" s="45">
+      <c r="S20" s="48">
         <v>2818</v>
       </c>
-      <c r="T20" s="46">
+      <c r="T20" s="12">
         <v>1055206200</v>
       </c>
-      <c r="U20" s="46"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="51">
-        <f>V20+W19</f>
-        <v>552094900</v>
+      <c r="U20" s="12"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="56">
+        <f t="shared" si="6"/>
+        <v>319321449.4514</v>
       </c>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:23">
-      <c r="A21" s="6">
+      <c r="A21" s="7">
         <v>16</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="8">
         <v>43869.1</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>2583</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>692146.88</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>955</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="25">
+      <c r="F21" s="13"/>
+      <c r="G21" s="22">
         <v>53733.3</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="13">
         <v>387</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="22">
         <v>23628748.38</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="13">
         <v>41</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="22">
         <v>244312.49</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="10">
-        <f>M21+K21+I21+G21+F21+D21</f>
+      <c r="L21" s="13"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="11">
+        <f t="shared" si="5"/>
         <v>24618941.05</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="9">
         <f>E21+H21+J21+L21+C21</f>
         <v>3966</v>
       </c>
-      <c r="P21" s="10">
-        <f>P20+N21</f>
+      <c r="P21" s="11">
+        <f t="shared" si="4"/>
         <v>1081550668.09</v>
       </c>
-      <c r="Q21" s="41">
-        <f>P21-W21</f>
-        <v>529455768.09</v>
-      </c>
-      <c r="R21" s="38">
+      <c r="Q21" s="45">
+        <f t="shared" si="3"/>
+        <v>442922918.6386</v>
+      </c>
+      <c r="R21" s="11">
         <v>24608400</v>
       </c>
-      <c r="S21" s="45">
+      <c r="S21" s="48">
         <v>3011</v>
       </c>
-      <c r="T21" s="46">
+      <c r="T21" s="12">
         <v>1079814600</v>
       </c>
-      <c r="U21" s="46"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="51">
-        <f>V21+W20</f>
-        <v>552094900</v>
+      <c r="U21" s="12"/>
+      <c r="V21" s="11">
+        <v>319306300</v>
+      </c>
+      <c r="W21" s="56">
+        <f t="shared" si="6"/>
+        <v>638627749.4514</v>
       </c>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:23">
-      <c r="A22" s="6">
+      <c r="A22" s="7">
         <v>17</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="8">
         <v>43870.1</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>1997</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>647350.06</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="14">
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="13">
         <v>279</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="22">
         <v>16183252.18</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="13">
         <v>41</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="22">
         <v>184038.04</v>
       </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="10">
-        <f>M22+K22+I22+G22+F22+D22</f>
+      <c r="L22" s="13"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="11">
+        <f t="shared" si="5"/>
         <v>17014640.28</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="9">
         <f>E22+H22+J22+L22+C22</f>
         <v>2317</v>
       </c>
-      <c r="P22" s="10">
-        <f>P21+N22</f>
+      <c r="P22" s="11">
+        <f t="shared" si="4"/>
         <v>1098565308.37</v>
       </c>
-      <c r="Q22" s="41">
-        <f>P22-W22</f>
-        <v>546470408.37</v>
-      </c>
-      <c r="R22" s="38">
+      <c r="Q22" s="45">
+        <f t="shared" si="3"/>
+        <v>161639858.9186</v>
+      </c>
+      <c r="R22" s="11">
         <v>17089400</v>
       </c>
-      <c r="S22" s="45">
+      <c r="S22" s="48">
         <v>2318</v>
       </c>
-      <c r="T22" s="46">
+      <c r="T22" s="12">
         <v>1096904000</v>
       </c>
-      <c r="U22" s="46"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="51">
-        <f>V22+W21</f>
-        <v>552094900</v>
+      <c r="U22" s="12"/>
+      <c r="V22" s="11">
+        <v>298297700</v>
+      </c>
+      <c r="W22" s="56">
+        <f t="shared" si="6"/>
+        <v>936925449.4514</v>
       </c>
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:23">
-      <c r="A23" s="6">
+      <c r="A23" s="7">
         <v>18</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="8">
         <v>43871.1</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>1877</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>520365</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="14">
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="13">
         <v>396</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="22">
         <v>10414268.39</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="13">
         <v>55</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="22">
         <v>1287457.16</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="10">
-        <f>M23+K23+I23+G23+F23+D23</f>
+      <c r="L23" s="13"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="11">
+        <f t="shared" si="5"/>
         <v>12222090.55</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="9">
         <f>E23+H23+J23+L23+C23</f>
         <v>2328</v>
       </c>
-      <c r="P23" s="10">
-        <f>P22+N23</f>
+      <c r="P23" s="11">
+        <f t="shared" si="4"/>
         <v>1110787398.92</v>
       </c>
-      <c r="Q23" s="41">
-        <f>P23-W23</f>
-        <v>558692498.92</v>
-      </c>
-      <c r="R23" s="38">
+      <c r="Q23" s="45">
+        <f t="shared" si="3"/>
+        <v>173861949.4686</v>
+      </c>
+      <c r="R23" s="11">
         <v>12347500</v>
       </c>
-      <c r="S23" s="45">
+      <c r="S23" s="48">
         <v>2329</v>
       </c>
-      <c r="T23" s="46">
+      <c r="T23" s="12">
         <v>1109251500</v>
       </c>
-      <c r="U23" s="46"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="51">
-        <f>V23+W22</f>
-        <v>552094900</v>
+      <c r="U23" s="12"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="56">
+        <f t="shared" si="6"/>
+        <v>936925449.4514</v>
       </c>
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:23">
-      <c r="A24" s="6">
+      <c r="A24" s="7">
         <v>19</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="8">
         <v>43872.1</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="53"/>
+      <c r="C24" s="13">
+        <v>1688</v>
+      </c>
+      <c r="D24" s="13">
+        <v>576936.42</v>
+      </c>
+      <c r="E24" s="13">
+        <v>568</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="22">
+        <v>39458.56</v>
+      </c>
+      <c r="H24" s="13">
+        <v>341</v>
+      </c>
+      <c r="I24" s="22">
+        <v>27213098.19</v>
+      </c>
+      <c r="J24" s="13">
+        <v>54</v>
+      </c>
+      <c r="K24" s="22">
+        <v>259201.84</v>
+      </c>
+      <c r="L24" s="13"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="11">
+        <f t="shared" si="5"/>
+        <v>28088695.01</v>
+      </c>
+      <c r="O24" s="9">
+        <f>E24+H24+J24+L24+C24</f>
+        <v>2651</v>
+      </c>
+      <c r="P24" s="11">
+        <f t="shared" si="4"/>
+        <v>1138876093.93</v>
+      </c>
+      <c r="Q24" s="45">
+        <f>P24-W24</f>
+        <v>201950644.4786</v>
+      </c>
+      <c r="R24" s="11">
+        <v>28183500</v>
+      </c>
+      <c r="S24" s="49">
+        <v>2087</v>
+      </c>
+      <c r="T24" s="12">
+        <v>1137435000</v>
+      </c>
+      <c r="U24" s="12">
+        <v>27229.8</v>
+      </c>
+      <c r="V24" s="11"/>
+      <c r="W24" s="56">
+        <f t="shared" si="6"/>
+        <v>936925449.4514</v>
+      </c>
     </row>
-    <row r="26" ht="89" customHeight="1" spans="1:23">
-      <c r="A26" s="15" t="s">
+    <row r="25" ht="27" customHeight="1" spans="1:23">
+      <c r="A25" s="7">
+        <v>20</v>
+      </c>
+      <c r="B25" s="8">
+        <v>43873.1</v>
+      </c>
+      <c r="C25" s="15">
+        <v>1584</v>
+      </c>
+      <c r="D25" s="15">
+        <v>567040.53</v>
+      </c>
+      <c r="E25" s="15">
+        <v>554</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="26">
+        <v>37940.79</v>
+      </c>
+      <c r="H25" s="15">
+        <v>286</v>
+      </c>
+      <c r="I25" s="26">
+        <v>11209241.04</v>
+      </c>
+      <c r="J25" s="15">
+        <v>44</v>
+      </c>
+      <c r="K25" s="26">
+        <v>604524.6</v>
+      </c>
+      <c r="L25" s="15"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="41">
+        <f>M25+K25+I25+G25+F25+D25</f>
+        <v>12418746.96</v>
+      </c>
+      <c r="O25" s="9">
+        <f>E25+H25+J25+L25+C25</f>
+        <v>2468</v>
+      </c>
+      <c r="P25" s="11">
+        <f>P24+N25</f>
+        <v>1151294840.89</v>
+      </c>
+      <c r="Q25" s="45">
+        <f>P25-W25</f>
+        <v>189492491.4386</v>
+      </c>
+      <c r="R25" s="42">
+        <v>12390700</v>
+      </c>
+      <c r="S25" s="50">
+        <v>1916</v>
+      </c>
+      <c r="T25" s="51">
+        <v>1149825700</v>
+      </c>
+      <c r="U25" s="51"/>
+      <c r="V25" s="42">
+        <v>24876900</v>
+      </c>
+      <c r="W25" s="56">
+        <f t="shared" si="6"/>
+        <v>961802349.4514</v>
+      </c>
+    </row>
+    <row r="26" ht="27" customHeight="1" spans="1:23">
+      <c r="A26" s="7">
+        <v>21</v>
+      </c>
+      <c r="B26" s="8">
+        <v>43874.1</v>
+      </c>
+      <c r="C26" s="15">
+        <v>1648</v>
+      </c>
+      <c r="D26" s="15">
+        <v>453589.11</v>
+      </c>
+      <c r="E26" s="15">
+        <v>587</v>
+      </c>
+      <c r="F26" s="15">
+        <v>200</v>
+      </c>
+      <c r="G26" s="26">
+        <v>32044.24</v>
+      </c>
+      <c r="H26" s="15">
+        <v>290</v>
+      </c>
+      <c r="I26" s="26">
+        <v>7139155.09</v>
+      </c>
+      <c r="J26" s="15">
+        <v>40</v>
+      </c>
+      <c r="K26" s="26">
+        <v>490117.23</v>
+      </c>
+      <c r="L26" s="15"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="41">
+        <f>M26+K26+I26+G26+F26+D26</f>
+        <v>8115105.67</v>
+      </c>
+      <c r="O26" s="9">
+        <f>E26+H26+J26+L26+C26</f>
+        <v>2565</v>
+      </c>
+      <c r="P26" s="11">
+        <f>P25+N26</f>
+        <v>1159409946.56</v>
+      </c>
+      <c r="Q26" s="45">
+        <f>P26-W26</f>
+        <v>186892397.1086</v>
+      </c>
+      <c r="R26" s="42">
+        <v>8196500</v>
+      </c>
+      <c r="S26" s="50">
+        <v>1979</v>
+      </c>
+      <c r="T26" s="51">
+        <v>1158022200</v>
+      </c>
+      <c r="U26" s="51"/>
+      <c r="V26" s="42">
+        <v>10715200</v>
+      </c>
+      <c r="W26" s="56">
+        <f t="shared" si="6"/>
+        <v>972517549.4514</v>
+      </c>
+    </row>
+    <row r="27" ht="27" customHeight="1" spans="1:23">
+      <c r="A27" s="7">
+        <v>22</v>
+      </c>
+      <c r="B27" s="8">
+        <v>43875.1</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1494</v>
+      </c>
+      <c r="D27" s="15">
+        <v>510210.07</v>
+      </c>
+      <c r="E27" s="15">
+        <v>557</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="26">
+        <v>32646.42</v>
+      </c>
+      <c r="H27" s="15">
+        <v>724</v>
+      </c>
+      <c r="I27" s="26">
+        <v>13367750.98</v>
+      </c>
+      <c r="J27" s="15">
+        <v>37</v>
+      </c>
+      <c r="K27" s="26">
+        <v>509796</v>
+      </c>
+      <c r="L27" s="15"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="41">
+        <f>M27+K27+I27+G27+F27+D27</f>
+        <v>14420403.47</v>
+      </c>
+      <c r="O27" s="9">
+        <f>E27+H27+J27+L27+C27</f>
+        <v>2812</v>
+      </c>
+      <c r="P27" s="11">
+        <f>P26+N27</f>
+        <v>1173830350.03</v>
+      </c>
+      <c r="Q27" s="45">
+        <f>P27-W27</f>
+        <v>201312800.5786</v>
+      </c>
+      <c r="R27" s="42">
+        <v>14331100</v>
+      </c>
+      <c r="S27" s="50">
+        <v>2262</v>
+      </c>
+      <c r="T27" s="51">
+        <v>1172353300</v>
+      </c>
+      <c r="U27" s="51"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="56">
+        <f t="shared" si="6"/>
+        <v>972517549.4514</v>
+      </c>
+    </row>
+    <row r="28" ht="27" customHeight="1" spans="1:23">
+      <c r="A28" s="7">
+        <v>23</v>
+      </c>
+      <c r="B28" s="8">
+        <v>43876.1</v>
+      </c>
+      <c r="C28" s="15">
+        <v>1307</v>
+      </c>
+      <c r="D28" s="15">
+        <v>425881.08</v>
+      </c>
+      <c r="E28" s="15">
+        <v>460</v>
+      </c>
+      <c r="F28" s="15">
+        <v>64411.25</v>
+      </c>
+      <c r="G28" s="26">
+        <v>31028.46</v>
+      </c>
+      <c r="H28" s="15">
+        <v>128</v>
+      </c>
+      <c r="I28" s="26">
+        <v>5381527.45</v>
+      </c>
+      <c r="J28" s="15">
+        <v>28</v>
+      </c>
+      <c r="K28" s="26">
+        <v>486192.99</v>
+      </c>
+      <c r="L28" s="15"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="41">
+        <f>M28+K28+I28+G28+F28+D28</f>
+        <v>6389041.23</v>
+      </c>
+      <c r="O28" s="9">
+        <f>E28+H28+J28+L28+C28</f>
+        <v>1923</v>
+      </c>
+      <c r="P28" s="11">
+        <f>P27+N28</f>
+        <v>1180219391.26</v>
+      </c>
+      <c r="Q28" s="45">
+        <f>P28-W28</f>
+        <v>200419441.8086</v>
+      </c>
+      <c r="R28" s="42">
+        <v>6442200</v>
+      </c>
+      <c r="S28" s="50">
+        <v>1614</v>
+      </c>
+      <c r="T28" s="51">
+        <v>1178795500</v>
+      </c>
+      <c r="U28" s="51"/>
+      <c r="V28" s="42">
+        <v>7282400</v>
+      </c>
+      <c r="W28" s="56">
+        <f t="shared" si="6"/>
+        <v>979799949.4514</v>
+      </c>
+    </row>
+    <row r="29" ht="27" customHeight="1" spans="1:23">
+      <c r="A29" s="7">
         <v>24</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B29" s="8">
+        <v>43877.1</v>
+      </c>
+      <c r="C29" s="15">
+        <v>1414</v>
+      </c>
+      <c r="D29" s="15">
+        <v>373454.36</v>
+      </c>
+      <c r="E29" s="15">
+        <v>2</v>
+      </c>
+      <c r="F29" s="15">
+        <v>7401</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="15">
+        <v>176</v>
+      </c>
+      <c r="I29" s="26">
+        <v>28286132.78</v>
+      </c>
+      <c r="J29" s="15">
+        <v>21</v>
+      </c>
+      <c r="K29" s="26">
+        <v>250270</v>
+      </c>
+      <c r="L29" s="15"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="41">
+        <f>M29+K29+I29+G29+F29+D29</f>
+        <v>28917258.14</v>
+      </c>
+      <c r="O29" s="9">
+        <f>E29+H29+J29+L29+C29</f>
+        <v>1613</v>
+      </c>
+      <c r="P29" s="11">
+        <f>P28+N29</f>
+        <v>1209136649.4</v>
+      </c>
+      <c r="Q29" s="45">
+        <f>P29-W29</f>
+        <v>229336699.9486</v>
+      </c>
+      <c r="R29" s="42">
+        <v>28969700</v>
+      </c>
+      <c r="S29" s="50">
+        <v>1612</v>
+      </c>
+      <c r="T29" s="51">
+        <v>1207765200</v>
+      </c>
+      <c r="U29" s="51"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="56">
+        <f t="shared" si="6"/>
+        <v>979799949.4514</v>
+      </c>
+    </row>
+    <row r="30" ht="27" customHeight="1" spans="1:23">
+      <c r="A30" s="7">
         <v>25</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
+      <c r="B30" s="8">
+        <v>43878.1</v>
+      </c>
+      <c r="C30" s="15">
+        <v>883</v>
+      </c>
+      <c r="D30" s="15">
+        <v>316022.34</v>
+      </c>
+      <c r="E30" s="15">
+        <v>1</v>
+      </c>
+      <c r="F30" s="27">
+        <v>1866</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="15">
+        <v>341</v>
+      </c>
+      <c r="I30" s="33">
+        <v>25861490.62</v>
+      </c>
+      <c r="J30" s="15">
+        <v>39</v>
+      </c>
+      <c r="K30" s="26">
+        <v>731057.35</v>
+      </c>
+      <c r="L30" s="15"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="41">
+        <f>M30+K30+I30+G30+F30+D30</f>
+        <v>26910436.31</v>
+      </c>
+      <c r="O30" s="9">
+        <f>E30+H30+J30+L30+C30</f>
+        <v>1264</v>
+      </c>
+      <c r="P30" s="11">
+        <f>P29+N30</f>
+        <v>1236047085.71</v>
+      </c>
+      <c r="Q30" s="45">
+        <f>P30-W30</f>
+        <v>256247136.2586</v>
+      </c>
+      <c r="R30" s="42">
+        <v>26968000</v>
+      </c>
+      <c r="S30" s="50">
+        <v>1264</v>
+      </c>
+      <c r="T30" s="51">
+        <v>1234733200</v>
+      </c>
+      <c r="U30" s="51"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="56">
+        <f t="shared" si="6"/>
+        <v>979799949.4514</v>
+      </c>
     </row>
-    <row r="27" ht="41" customHeight="1" spans="1:23">
-      <c r="A27" s="17"/>
-      <c r="B27" s="16" t="s">
+    <row r="31" ht="27" customHeight="1" spans="1:23">
+      <c r="A31" s="7">
         <v>26</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
+      <c r="B31" s="8">
+        <v>43879.1</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="11">
+        <v>52132500</v>
+      </c>
+      <c r="W31" s="56">
+        <f t="shared" si="6"/>
+        <v>1031932449.4514</v>
+      </c>
+    </row>
+    <row r="33" ht="89" customHeight="1" spans="1:23">
+      <c r="A33" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="17"/>
+    </row>
+    <row r="34" ht="41" customHeight="1" spans="1:23">
+      <c r="A34" s="18"/>
+      <c r="B34" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2850,10 +3342,10 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B26:W26"/>
-    <mergeCell ref="B27:W27"/>
+    <mergeCell ref="B33:W33"/>
+    <mergeCell ref="B34:W34"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="N3:Q4"/>
     <mergeCell ref="R3:W4"/>
